--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\workplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="240">
   <si>
     <t xml:space="preserve">Work Breakdown Structure </t>
   </si>
@@ -222,57 +222,9 @@
     <t>Test Mediation.Workflows.NetFlow.NetFlowCdrProcessor</t>
   </si>
   <si>
-    <t>5.1.32</t>
-  </si>
-  <si>
-    <t>5.1.33</t>
-  </si>
-  <si>
-    <t>5.1.34</t>
-  </si>
-  <si>
-    <t>5.1.35</t>
-  </si>
-  <si>
-    <t>5.1.36</t>
-  </si>
-  <si>
-    <t>5.1.37</t>
-  </si>
-  <si>
-    <t>5.1.38</t>
-  </si>
-  <si>
-    <t>5.1.39</t>
-  </si>
-  <si>
-    <t>5.1.40</t>
-  </si>
-  <si>
-    <t>5.1.41</t>
-  </si>
-  <si>
-    <t>5.2.18</t>
-  </si>
-  <si>
-    <t>5.2.19</t>
-  </si>
-  <si>
-    <t>5.2.20</t>
-  </si>
-  <si>
-    <t>5.2.40</t>
-  </si>
-  <si>
-    <t>5.2.41</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trạng thái </t>
   </si>
   <si>
-    <t>Website quản lý cửa hàng bán quần áo online</t>
-  </si>
-  <si>
     <t>DA01</t>
   </si>
   <si>
@@ -306,9 +258,6 @@
     <t>4.01.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Thiết kế bảng </t>
-  </si>
-  <si>
     <t>4.01.2</t>
   </si>
   <si>
@@ -328,13 +277,683 @@
   </si>
   <si>
     <t>4.01.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Clothes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GroupClothes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ClothesImages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <t>4.01.9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thiết kế bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OrderDetail</t>
+    </r>
+  </si>
+  <si>
+    <t>4.02.1</t>
+  </si>
+  <si>
+    <t>Gói Data</t>
+  </si>
+  <si>
+    <t>4.02.1.1</t>
+  </si>
+  <si>
+    <t>4.02.1.2</t>
+  </si>
+  <si>
+    <t>4.02.1.3</t>
+  </si>
+  <si>
+    <t>4.02.1.4</t>
+  </si>
+  <si>
+    <t>4.02.1.5</t>
+  </si>
+  <si>
+    <t>4.02.1.6</t>
+  </si>
+  <si>
+    <t>4.02.1.7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ConnectDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OrdeControl</t>
+    </r>
+  </si>
+  <si>
+    <t>Website quản lý cửa hàng quần áo online</t>
+  </si>
+  <si>
+    <t>4.02.1.1.1</t>
+  </si>
+  <si>
+    <t>4.02.1.1.2</t>
+  </si>
+  <si>
+    <t>4.02.1.1.3</t>
+  </si>
+  <si>
+    <t>4.02.1.1.4</t>
+  </si>
+  <si>
+    <t>Phương thức khỏi tạo Bag</t>
+  </si>
+  <si>
+    <t>Phương thức AddCloth</t>
+  </si>
+  <si>
+    <t>Phương thức ShowDetail</t>
+  </si>
+  <si>
+    <t>Phương thức CaculatorTotalPrice</t>
+  </si>
+  <si>
+    <t>4.02.1.2.1</t>
+  </si>
+  <si>
+    <t>4.02.1.2.2</t>
+  </si>
+  <si>
+    <t>4.02.1.2.3</t>
+  </si>
+  <si>
+    <t>4.02.1.2.4</t>
+  </si>
+  <si>
+    <t>4.02.1.2.5</t>
+  </si>
+  <si>
+    <t>4.02.1.2.6</t>
+  </si>
+  <si>
+    <t>4.02.1.2.7</t>
+  </si>
+  <si>
+    <t>Phương thức khỏi tạo Cloth</t>
+  </si>
+  <si>
+    <t>Phương thức FindClothByID</t>
+  </si>
+  <si>
+    <t>Phương thức FindClothByOptions</t>
+  </si>
+  <si>
+    <t>Phương thức Searchmin</t>
+  </si>
+  <si>
+    <t>Phương thức Searchnormal</t>
+  </si>
+  <si>
+    <t>Phương thức Searchmax</t>
+  </si>
+  <si>
+    <t>4.02.1.2.8</t>
+  </si>
+  <si>
+    <t>Phương thức showdata</t>
+  </si>
+  <si>
+    <t>4.02.1.2.9</t>
+  </si>
+  <si>
+    <t>Phương thức SearchName</t>
+  </si>
+  <si>
+    <t>4.02.1.3.1</t>
+  </si>
+  <si>
+    <t>4.02.1.3.2</t>
+  </si>
+  <si>
+    <t>4.02.1.3.3</t>
+  </si>
+  <si>
+    <t>4.02.1.3.4</t>
+  </si>
+  <si>
+    <t>4.02.1.3.5</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>5.1.4</t>
+  </si>
+  <si>
+    <t>5.1.5</t>
+  </si>
+  <si>
+    <t>5.1.6</t>
+  </si>
+  <si>
+    <t>5.1.7</t>
+  </si>
+  <si>
+    <t>5.1.8</t>
+  </si>
+  <si>
+    <t>5.1.9</t>
+  </si>
+  <si>
+    <t>5.1.10</t>
+  </si>
+  <si>
+    <t>5.1.11</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>5.2.5</t>
+  </si>
+  <si>
+    <t>5.2.6</t>
+  </si>
+  <si>
+    <t>Phương thức MoKetNoi</t>
+  </si>
+  <si>
+    <t>Phương thức DongKetNoi</t>
+  </si>
+  <si>
+    <t>Phương thức ExecuteCommand</t>
+  </si>
+  <si>
+    <t>Phương thức ReturnDataTable</t>
+  </si>
+  <si>
+    <t>Phương thức ReturnDataTable_NonParameter</t>
+  </si>
+  <si>
+    <t>4.02.1.3.6</t>
+  </si>
+  <si>
+    <t>Phương thức GetData</t>
+  </si>
+  <si>
+    <t>4.02.1.4.1</t>
+  </si>
+  <si>
+    <t>4.02.1.4.2</t>
+  </si>
+  <si>
+    <t>4.02.1.4.3</t>
+  </si>
+  <si>
+    <t>Phương thức khởi tạo Customer</t>
+  </si>
+  <si>
+    <t>4.02.1.4.4</t>
+  </si>
+  <si>
+    <t>4.02.1.4.5</t>
+  </si>
+  <si>
+    <t>4.02.1.4.6</t>
+  </si>
+  <si>
+    <t>4.02.1.4.7</t>
+  </si>
+  <si>
+    <t>4.02.1.5.1</t>
+  </si>
+  <si>
+    <t>4.02.1.5.2</t>
+  </si>
+  <si>
+    <t>4.02.1.5.3</t>
+  </si>
+  <si>
+    <t>4.02.1.5.4</t>
+  </si>
+  <si>
+    <t>Phương thức khởi tạo Order</t>
+  </si>
+  <si>
+    <t>4.02.1.6.1</t>
+  </si>
+  <si>
+    <t>4.02.1.6.2</t>
+  </si>
+  <si>
+    <t>4.02.1.6.3</t>
+  </si>
+  <si>
+    <t>4.02.1.6.4</t>
+  </si>
+  <si>
+    <t>4.02.1.6.5</t>
+  </si>
+  <si>
+    <t>4.02.1.6.6</t>
+  </si>
+  <si>
+    <t>4.02.1.6.7</t>
+  </si>
+  <si>
+    <t>Phương thức CreateCustomer</t>
+  </si>
+  <si>
+    <t>Phương thức CheckLogin</t>
+  </si>
+  <si>
+    <t>Phương thức CheckUsename</t>
+  </si>
+  <si>
+    <t>Phương thức FindCustomer</t>
+  </si>
+  <si>
+    <t>Phương thức Register</t>
+  </si>
+  <si>
+    <t>Phương thức ShowListOrder</t>
+  </si>
+  <si>
+    <t>Phương thức  Unpublic</t>
+  </si>
+  <si>
+    <t>Phương thức ShowDetailOrder</t>
+  </si>
+  <si>
+    <t>Phương thức khởi tạo OrderControl</t>
+  </si>
+  <si>
+    <t>Phương thức ShowNewCloth</t>
+  </si>
+  <si>
+    <t>Phương thức ShowClothByGroup</t>
+  </si>
+  <si>
+    <t>Phương thức ShowClothByID</t>
+  </si>
+  <si>
+    <t>Phương thức AddClothToBag</t>
+  </si>
+  <si>
+    <t>Phương thức CreateOrder</t>
+  </si>
+  <si>
+    <t>Phương thức ShowSpeciaCloth</t>
+  </si>
+  <si>
+    <t>4.02.1.7.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lớp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <t>Phương thức khởi tạo Sales</t>
+  </si>
+  <si>
+    <t>4.02.1.7.2</t>
+  </si>
+  <si>
+    <t>…Đang tiếp tục thảo luận</t>
+  </si>
+  <si>
+    <t>4.03.1</t>
+  </si>
+  <si>
+    <t>4.03.1.1</t>
+  </si>
+  <si>
+    <t>4.03.2</t>
+  </si>
+  <si>
+    <t>4.03.3</t>
+  </si>
+  <si>
+    <t>Giao diện dành cho Chủ cửa hàng</t>
+  </si>
+  <si>
+    <t>Giao diện dành cho Khách hàng</t>
+  </si>
+  <si>
+    <t>Giao diện dành cho Nhân viên</t>
+  </si>
+  <si>
+    <t>4.03.1.2</t>
+  </si>
+  <si>
+    <t>4.03.1.3</t>
+  </si>
+  <si>
+    <t>4.03.1.4</t>
+  </si>
+  <si>
+    <t>4.03.1.5</t>
+  </si>
+  <si>
+    <t>4.03.1.6</t>
+  </si>
+  <si>
+    <t>4.03.1.7</t>
+  </si>
+  <si>
+    <t>4.03.1.8</t>
+  </si>
+  <si>
+    <t>4.03.1.9</t>
+  </si>
+  <si>
+    <t>Giao diện Home</t>
+  </si>
+  <si>
+    <t>Giao diện Login</t>
+  </si>
+  <si>
+    <t>Giao diện Register</t>
+  </si>
+  <si>
+    <t>Giao diện GroupClothes</t>
+  </si>
+  <si>
+    <t>Giao diện ClothDetail</t>
+  </si>
+  <si>
+    <t>Giao diện SearchByPrice</t>
+  </si>
+  <si>
+    <t>Giao diện BagDetail</t>
+  </si>
+  <si>
+    <t>Giao diện OrderInformation</t>
+  </si>
+  <si>
+    <t>Giao diện FinishOrder</t>
+  </si>
+  <si>
+    <t>4.03.2.1</t>
+  </si>
+  <si>
+    <t>4.03.2.2</t>
+  </si>
+  <si>
+    <t>4.03.2.3</t>
+  </si>
+  <si>
+    <t>Giao diện Products_Management</t>
+  </si>
+  <si>
+    <t>Giao diện GroupProducts_Management</t>
+  </si>
+  <si>
+    <t>Giao diện OrderManagement</t>
+  </si>
+  <si>
+    <t>Giao diện Customer_Management</t>
+  </si>
+  <si>
+    <t>Giao diện Sales_Management</t>
+  </si>
+  <si>
+    <t>4.03.3.1</t>
+  </si>
+  <si>
+    <t>4.03.3.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +975,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -403,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -444,12 +1071,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -473,6 +1094,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J75"/>
+  <dimension ref="B3:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,39 +1425,39 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -850,13 +1474,13 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>5</v>
@@ -880,7 +1504,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -902,7 +1526,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -924,7 +1548,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -946,7 +1570,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -968,7 +1592,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -990,7 +1614,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -1012,7 +1636,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -1034,7 +1658,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -1056,7 +1680,7 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I20" s="11"/>
     </row>
@@ -1078,7 +1702,7 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1100,7 +1724,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -1122,7 +1746,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1144,7 +1768,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1166,7 +1790,7 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -1188,7 +1812,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -1210,878 +1834,2182 @@
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="9">
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="21" t="s">
-        <v>90</v>
+      <c r="H28" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="19">
+      <c r="B29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="17">
         <v>3</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="17">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="E34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="17">
+        <v>3</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="21">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="19">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C39" s="18">
         <v>3</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="19">
+      <c r="E39" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="17">
+        <v>5</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="17">
+        <v>5</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="17">
+        <v>5</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="17">
+        <v>5</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="17">
+        <v>4</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="17">
+        <v>5</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="17">
+        <v>5</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="17">
+        <v>5</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="17">
+        <v>5</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="17">
+        <v>5</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="17">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="17">
+        <v>5</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="17">
+        <v>5</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="17">
+        <v>5</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="17">
+        <v>4</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="17">
+        <v>5</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="17">
+        <v>5</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="17">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="17">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="17">
+        <v>5</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="17">
+        <v>5</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="17">
+        <v>4</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="17">
+        <v>5</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="17">
+        <v>5</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="17">
+        <v>5</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="17">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="17">
+        <v>5</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="17">
+        <v>5</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="17">
+        <v>5</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="17">
+        <v>4</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="17">
+        <v>5</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="17">
+        <v>5</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="17">
+        <v>5</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="17">
+        <v>5</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="17">
+        <v>4</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="17">
+        <v>5</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="17">
+        <v>5</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="17">
+        <v>5</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="17">
+        <v>5</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="17">
+        <v>5</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="17">
+        <v>5</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="17">
+        <v>5</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="17">
+        <v>4</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="17">
+        <v>5</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="17">
+        <v>5</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="9">
+        <v>4.03</v>
+      </c>
+      <c r="C86" s="9">
+        <v>2</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="18">
         <v>3</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="D87" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="17">
+        <v>4</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="17">
+        <v>4</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="17">
+        <v>4</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="17">
+        <v>4</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91" s="19"/>
+    </row>
+    <row r="92" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="17">
+        <v>4</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="17">
+        <v>4</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="17">
+        <v>4</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94" s="19"/>
+    </row>
+    <row r="95" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="17">
+        <v>4</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I95" s="19"/>
+    </row>
+    <row r="96" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="17">
+        <v>4</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96" s="19"/>
+    </row>
+    <row r="97" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B97" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="18">
         <v>3</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="D97" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97" s="19"/>
+    </row>
+    <row r="98" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="17">
+        <v>4</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="19"/>
+    </row>
+    <row r="99" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="17">
+        <v>4</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99" s="19"/>
+    </row>
+    <row r="100" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="17">
+        <v>4</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B101" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="18">
         <v>3</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="D101" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101" s="19"/>
+    </row>
+    <row r="102" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="17">
+        <v>4</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="17">
+        <v>4</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B104" s="9">
+        <v>5</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="18">
+        <v>2</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="7">
         <v>3</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="D106" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="17">
         <v>3</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="2:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="19">
+      <c r="D107" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="17">
         <v>3</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="C37" s="20">
+      <c r="D108" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="17">
+        <v>3</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="17">
+        <v>3</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111" s="17">
+        <v>3</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="17">
+        <v>3</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="17">
+        <v>3</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="17">
+        <v>3</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="17">
+        <v>3</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="17">
+        <v>3</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="18">
         <v>2</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="9">
-        <v>5</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="D117" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="7">
+        <v>3</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="17">
+        <v>3</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="17">
+        <v>3</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="17">
+        <v>3</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="17">
+        <v>3</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="17">
+        <v>3</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7">
+        <v>6</v>
+      </c>
+      <c r="C124" s="7">
         <v>1</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="D124" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="C125" s="7">
         <v>2</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="D125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="C126" s="17">
         <v>2</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="D126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="18">
+        <v>7</v>
+      </c>
+      <c r="C127" s="18">
+        <v>1</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="C128" s="7">
         <v>2</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="D128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="17">
+        <v>7.2</v>
+      </c>
+      <c r="C129" s="7">
         <v>2</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="D129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="17">
+        <v>7.3</v>
+      </c>
+      <c r="C130" s="7">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="D130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="C131" s="17">
         <v>2</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="D131" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="18">
+        <v>8</v>
+      </c>
+      <c r="C132" s="18">
+        <v>1</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="C133" s="7">
         <v>2</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="D133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C134" s="7">
         <v>2</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="D134" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C135" s="7">
         <v>2</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="D135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="C136" s="7">
         <v>2</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="7">
+      <c r="D136" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="C137" s="17">
         <v>2</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="D137" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="18">
+        <v>9</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C139" s="7">
         <v>2</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="C51" s="9">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="7">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="7">
-        <v>2</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="7">
-        <v>2</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="7">
-        <v>2</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="7">
-        <v>2</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="9">
-        <v>6</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="C60" s="7">
-        <v>2</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9">
-        <v>7</v>
-      </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="C62" s="7">
-        <v>2</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="C63" s="7">
-        <v>2</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="C64" s="7">
-        <v>2</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="C65" s="7">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="9">
-        <v>8</v>
-      </c>
-      <c r="C66" s="9">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="C67" s="7">
-        <v>2</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C68" s="7">
-        <v>2</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="C70" s="7">
-        <v>2</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="C71" s="7">
-        <v>2</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="9">
-        <v>9</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="C73" s="7">
-        <v>2</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C74" s="7">
-        <v>2</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="4" t="s">
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D140" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\workplace\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
   <si>
     <t xml:space="preserve">Work Breakdown Structure </t>
   </si>
@@ -202,24 +197,6 @@
   </si>
   <si>
     <t>Code Mediation.Workflows.NetFlow.NetFlowCdrProcessor</t>
-  </si>
-  <si>
-    <t>Test Mediation.CollectorTriggers.TimeManualTrigger</t>
-  </si>
-  <si>
-    <t>Test Mediation.DataArchivers.GeneralFileArchiver</t>
-  </si>
-  <si>
-    <t>Test Mediation.DataArchivers.OracleDbArchiver</t>
-  </si>
-  <si>
-    <t>Test Mediation.DataCollectors.GeneralFtpCollector</t>
-  </si>
-  <si>
-    <t>Test Mediation.Workflows.NetFlow.IPAddressFilter</t>
-  </si>
-  <si>
-    <t>Test Mediation.Workflows.NetFlow.NetFlowCdrProcessor</t>
   </si>
   <si>
     <t xml:space="preserve">Trạng thái </t>
@@ -681,18 +658,6 @@
     <t>5.2.2</t>
   </si>
   <si>
-    <t>5.2.3</t>
-  </si>
-  <si>
-    <t>5.2.4</t>
-  </si>
-  <si>
-    <t>5.2.5</t>
-  </si>
-  <si>
-    <t>5.2.6</t>
-  </si>
-  <si>
     <t>Phương thức MoKetNoi</t>
   </si>
   <si>
@@ -947,6 +912,204 @@
   </si>
   <si>
     <t>4.03.3.2</t>
+  </si>
+  <si>
+    <t>Kiểm thử CSDL (Database Cloth)</t>
+  </si>
+  <si>
+    <t>Test Table Shop</t>
+  </si>
+  <si>
+    <t>Test Table GroupClothes</t>
+  </si>
+  <si>
+    <t>Test Table Clothes</t>
+  </si>
+  <si>
+    <t>Test Table ClothesImages</t>
+  </si>
+  <si>
+    <t>Test Table Admin</t>
+  </si>
+  <si>
+    <t>Test Table Customer</t>
+  </si>
+  <si>
+    <t>Test Table Sales</t>
+  </si>
+  <si>
+    <t>Test Table Order</t>
+  </si>
+  <si>
+    <t>Test Table  OrderDetail</t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t>5.2.1.2</t>
+  </si>
+  <si>
+    <t>5.2.1.3</t>
+  </si>
+  <si>
+    <t>5.2.1.4</t>
+  </si>
+  <si>
+    <t>5.2.1.5</t>
+  </si>
+  <si>
+    <t>5.2.1.6</t>
+  </si>
+  <si>
+    <t>5.2.1.7</t>
+  </si>
+  <si>
+    <t>5.2.1.8</t>
+  </si>
+  <si>
+    <t>5.2.1.9</t>
+  </si>
+  <si>
+    <t>Kiểm thử Chức năng</t>
+  </si>
+  <si>
+    <t>5.2.2.1</t>
+  </si>
+  <si>
+    <t>Test giao diện</t>
+  </si>
+  <si>
+    <t>5.2.2.2</t>
+  </si>
+  <si>
+    <t>Test form Home</t>
+  </si>
+  <si>
+    <t>Test form Login</t>
+  </si>
+  <si>
+    <t>Test form Register</t>
+  </si>
+  <si>
+    <t>Test form GroupClothes</t>
+  </si>
+  <si>
+    <t>Test form ClothDetail</t>
+  </si>
+  <si>
+    <t>Test form SearchByPrice</t>
+  </si>
+  <si>
+    <t>Test form BagDetail</t>
+  </si>
+  <si>
+    <t>Test form OrderInfomation</t>
+  </si>
+  <si>
+    <t>Test form FinishOrder</t>
+  </si>
+  <si>
+    <t>Test form Products_Management</t>
+  </si>
+  <si>
+    <t>Test form GroupProducts_Management</t>
+  </si>
+  <si>
+    <t>Test form OrderManagement</t>
+  </si>
+  <si>
+    <t>Test form Customer_Management</t>
+  </si>
+  <si>
+    <t>Test form Sales_Management</t>
+  </si>
+  <si>
+    <t>5.2.2.1.1</t>
+  </si>
+  <si>
+    <t>5.2.2.1.2</t>
+  </si>
+  <si>
+    <t>5.2.2.1.3</t>
+  </si>
+  <si>
+    <t>5.2.2.1.4</t>
+  </si>
+  <si>
+    <t>5.2.2.1.5</t>
+  </si>
+  <si>
+    <t>5.2.2.1.6</t>
+  </si>
+  <si>
+    <t>5.2.2.1.7</t>
+  </si>
+  <si>
+    <t>5.2.2.1.8</t>
+  </si>
+  <si>
+    <t>5.2.2.1.9</t>
+  </si>
+  <si>
+    <t>5.2.2.1.10</t>
+  </si>
+  <si>
+    <t>5.2.2.1.11</t>
+  </si>
+  <si>
+    <t>5.2.2.1.12</t>
+  </si>
+  <si>
+    <t>5.2.2.1.13</t>
+  </si>
+  <si>
+    <t>5.2.2.1.14</t>
+  </si>
+  <si>
+    <t>Test class</t>
+  </si>
+  <si>
+    <t>5.2.2.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2.2.2</t>
+  </si>
+  <si>
+    <t>5.2.2.2.3</t>
+  </si>
+  <si>
+    <t>5.2.2.2.4</t>
+  </si>
+  <si>
+    <t>5.2.2.2.5</t>
+  </si>
+  <si>
+    <t>5.2.2.2.6</t>
+  </si>
+  <si>
+    <t>5.2.2.2.7</t>
+  </si>
+  <si>
+    <t>Test class Bag</t>
+  </si>
+  <si>
+    <t>Test class Cloth</t>
+  </si>
+  <si>
+    <t>Test class ConnectDB</t>
+  </si>
+  <si>
+    <t>Test class Customer</t>
+  </si>
+  <si>
+    <t>Test class Order</t>
+  </si>
+  <si>
+    <t>Test class OrderControl</t>
+  </si>
+  <si>
+    <t>Test class Sales</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1098,6 +1261,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,7 +1330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1193,7 +1365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1402,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J140"/>
+  <dimension ref="B3:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1602,7 @@
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1439,7 +1611,7 @@
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1448,16 +1620,16 @@
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -1474,13 +1646,13 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>5</v>
@@ -1504,7 +1676,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1526,7 +1698,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1548,7 +1720,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -1570,7 +1742,7 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1592,7 +1764,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -1614,7 +1786,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -1636,7 +1808,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -1658,7 +1830,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -1680,7 +1852,7 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I20" s="11"/>
     </row>
@@ -1702,7 +1874,7 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1724,7 +1896,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -1746,7 +1918,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1768,7 +1940,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1790,7 +1962,7 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -1812,7 +1984,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -1834,7 +2006,7 @@
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I27" s="11"/>
     </row>
@@ -1846,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>32</v>
@@ -1856,19 +2028,19 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="17">
         <v>3</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>32</v>
@@ -1876,19 +2048,19 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C30" s="17">
         <v>3</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
@@ -1896,19 +2068,19 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31" s="17">
         <v>3</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>32</v>
@@ -1916,19 +2088,19 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C32" s="17">
         <v>3</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
@@ -1936,19 +2108,19 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
@@ -1956,19 +2128,19 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C34" s="17">
         <v>3</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -1976,19 +2148,19 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C35" s="17">
         <v>3</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
@@ -1996,19 +2168,19 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C36" s="17">
         <v>3</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>32</v>
@@ -2016,19 +2188,19 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C37" s="17">
         <v>3</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
@@ -2036,7 +2208,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I37" s="16"/>
     </row>
@@ -2058,19 +2230,19 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C39" s="18">
         <v>3</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>32</v>
@@ -2078,19 +2250,19 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C40" s="17">
         <v>4</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>32</v>
@@ -2098,19 +2270,19 @@
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C41" s="17">
         <v>5</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>32</v>
@@ -2118,19 +2290,19 @@
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C42" s="17">
         <v>5</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>32</v>
@@ -2138,19 +2310,19 @@
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C43" s="17">
         <v>5</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>32</v>
@@ -2158,19 +2330,19 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C44" s="17">
         <v>5</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>32</v>
@@ -2178,19 +2350,19 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C45" s="17">
         <v>4</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>32</v>
@@ -2198,19 +2370,19 @@
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C46" s="17">
         <v>5</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>32</v>
@@ -2218,19 +2390,19 @@
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C47" s="17">
         <v>5</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
@@ -2238,19 +2410,19 @@
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C48" s="17">
         <v>5</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>32</v>
@@ -2258,19 +2430,19 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C49" s="17">
         <v>5</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>32</v>
@@ -2278,19 +2450,19 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I49" s="16"/>
     </row>
     <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="17">
+        <v>5</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" s="17">
-        <v>5</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>32</v>
@@ -2298,19 +2470,19 @@
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I50" s="16"/>
     </row>
     <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="17">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" s="17">
-        <v>5</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>32</v>
@@ -2318,19 +2490,19 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I51" s="16"/>
     </row>
     <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="17">
+        <v>5</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="17">
-        <v>5</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>32</v>
@@ -2338,19 +2510,19 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C53" s="17">
         <v>5</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>32</v>
@@ -2358,19 +2530,19 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I53" s="16"/>
     </row>
     <row r="54" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C54" s="17">
         <v>5</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
@@ -2378,19 +2550,19 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I54" s="16"/>
     </row>
     <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C55" s="17">
         <v>4</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>32</v>
@@ -2398,19 +2570,19 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I55" s="16"/>
     </row>
     <row r="56" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C56" s="17">
         <v>5</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>32</v>
@@ -2418,19 +2590,19 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I56" s="16"/>
     </row>
     <row r="57" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C57" s="17">
         <v>5</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>32</v>
@@ -2438,19 +2610,19 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I57" s="16"/>
     </row>
     <row r="58" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C58" s="17">
         <v>5</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>32</v>
@@ -2458,19 +2630,19 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C59" s="17">
         <v>5</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
@@ -2478,19 +2650,19 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I59" s="16"/>
     </row>
     <row r="60" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C60" s="17">
         <v>5</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>32</v>
@@ -2498,19 +2670,19 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C61" s="17">
         <v>5</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>32</v>
@@ -2518,19 +2690,19 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C62" s="17">
         <v>4</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>32</v>
@@ -2538,19 +2710,19 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I62" s="16"/>
     </row>
     <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C63" s="17">
         <v>5</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>32</v>
@@ -2558,19 +2730,19 @@
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I63" s="16"/>
     </row>
     <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C64" s="17">
         <v>5</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>32</v>
@@ -2578,19 +2750,19 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I64" s="16"/>
     </row>
     <row r="65" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C65" s="17">
         <v>5</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
@@ -2598,19 +2770,19 @@
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I65" s="16"/>
     </row>
     <row r="66" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C66" s="17">
         <v>5</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>32</v>
@@ -2618,19 +2790,19 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I66" s="16"/>
     </row>
     <row r="67" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C67" s="17">
         <v>5</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
@@ -2638,19 +2810,19 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C68" s="17">
         <v>5</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>32</v>
@@ -2658,19 +2830,19 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C69" s="17">
         <v>5</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>32</v>
@@ -2678,19 +2850,19 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C70" s="17">
         <v>4</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>32</v>
@@ -2698,19 +2870,19 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C71" s="17">
         <v>5</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>32</v>
@@ -2718,19 +2890,19 @@
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C72" s="17">
         <v>5</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>32</v>
@@ -2738,19 +2910,19 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I72" s="16"/>
     </row>
     <row r="73" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C73" s="17">
         <v>5</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>32</v>
@@ -2758,19 +2930,19 @@
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C74" s="17">
         <v>5</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>32</v>
@@ -2778,19 +2950,19 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C75" s="17">
         <v>4</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>32</v>
@@ -2798,19 +2970,19 @@
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C76" s="17">
         <v>5</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>32</v>
@@ -2818,19 +2990,19 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C77" s="17">
         <v>5</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>32</v>
@@ -2838,19 +3010,19 @@
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I77" s="16"/>
     </row>
     <row r="78" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C78" s="17">
         <v>5</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>32</v>
@@ -2858,19 +3030,19 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I78" s="16"/>
     </row>
     <row r="79" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C79" s="17">
         <v>5</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>32</v>
@@ -2878,19 +3050,19 @@
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I79" s="16"/>
     </row>
     <row r="80" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C80" s="17">
         <v>5</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>32</v>
@@ -2898,19 +3070,19 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I80" s="16"/>
     </row>
     <row r="81" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C81" s="17">
         <v>5</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>32</v>
@@ -2918,19 +3090,19 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C82" s="17">
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>32</v>
@@ -2938,19 +3110,19 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I82" s="16"/>
     </row>
     <row r="83" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C83" s="17">
         <v>4</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>32</v>
@@ -2958,19 +3130,19 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C84" s="17">
         <v>5</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>32</v>
@@ -2978,19 +3150,19 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I84" s="16"/>
     </row>
     <row r="85" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C85" s="17">
         <v>5</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>32</v>
@@ -2998,7 +3170,7 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I85" s="16"/>
     </row>
@@ -3018,19 +3190,19 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C87" s="18">
         <v>3</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>32</v>
@@ -3038,19 +3210,19 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C88" s="17">
         <v>4</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>32</v>
@@ -3058,19 +3230,19 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C89" s="17">
         <v>4</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>32</v>
@@ -3078,19 +3250,19 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C90" s="17">
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>32</v>
@@ -3098,19 +3270,19 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="17" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C91" s="17">
         <v>4</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>32</v>
@@ -3118,19 +3290,19 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="17" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C92" s="17">
         <v>4</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>32</v>
@@ -3138,19 +3310,19 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I92" s="19"/>
     </row>
     <row r="93" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C93" s="17">
         <v>4</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>32</v>
@@ -3158,19 +3330,19 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C94" s="17">
         <v>4</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>32</v>
@@ -3178,19 +3350,19 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="17" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C95" s="17">
         <v>4</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>32</v>
@@ -3198,19 +3370,19 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="17" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C96" s="17">
         <v>4</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>32</v>
@@ -3218,19 +3390,19 @@
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C97" s="18">
         <v>3</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>32</v>
@@ -3238,19 +3410,19 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="17" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C98" s="17">
         <v>4</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>32</v>
@@ -3258,19 +3430,19 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C99" s="17">
         <v>4</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>32</v>
@@ -3278,19 +3450,19 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C100" s="17">
         <v>4</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>32</v>
@@ -3298,19 +3470,19 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C101" s="18">
         <v>3</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>32</v>
@@ -3318,19 +3490,19 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="17" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C102" s="17">
         <v>4</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>32</v>
@@ -3338,19 +3510,19 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="17" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C103" s="17">
         <v>4</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>32</v>
@@ -3358,7 +3530,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I103" s="19"/>
     </row>
@@ -3382,7 +3554,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C105" s="18">
         <v>2</v>
@@ -3418,7 +3590,7 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C107" s="17">
         <v>3</v>
@@ -3436,7 +3608,7 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C108" s="17">
         <v>3</v>
@@ -3454,7 +3626,7 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C109" s="17">
         <v>3</v>
@@ -3472,7 +3644,7 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C110" s="17">
         <v>3</v>
@@ -3490,7 +3662,7 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C111" s="17">
         <v>3</v>
@@ -3508,7 +3680,7 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C112" s="17">
         <v>3</v>
@@ -3526,7 +3698,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C113" s="17">
         <v>3</v>
@@ -3544,7 +3716,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C114" s="17">
         <v>3</v>
@@ -3562,7 +3734,7 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C115" s="17">
         <v>3</v>
@@ -3580,7 +3752,7 @@
     </row>
     <row r="116" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C116" s="17">
         <v>3</v>
@@ -3598,7 +3770,7 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C117" s="18">
         <v>2</v>
@@ -3609,407 +3781,1079 @@
       <c r="E117" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="24">
+        <v>6</v>
+      </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="H117" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="18">
         <v>3</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118" s="4"/>
+      <c r="D118" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="24">
+        <v>2</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="C119" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="25">
+        <v>0.2</v>
+      </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="H119" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="C120" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="25">
+        <v>0.2</v>
+      </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="H120" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="C121" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="25">
+        <v>0.2</v>
+      </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
+      <c r="H121" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="C122" s="17">
+        <v>4</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="17">
+        <v>4</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123" s="19"/>
+    </row>
+    <row r="124" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="17">
+        <v>4</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="17">
+        <v>4</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125" s="11"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="17">
+        <v>4</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G126" s="19"/>
+      <c r="H126" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126" s="19"/>
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="17">
+        <v>4</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G127" s="19"/>
+      <c r="H127" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I127" s="19"/>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" s="18">
         <v>3</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" s="17">
-        <v>3</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="7">
+      <c r="D128" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="24">
+        <v>4</v>
+      </c>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I128" s="19"/>
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" s="18">
+        <v>4</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="24">
+        <v>2</v>
+      </c>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I129" s="19"/>
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" s="17">
+        <v>5</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G130" s="19"/>
+      <c r="H130" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130" s="19"/>
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="17">
+        <v>5</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G131" s="19"/>
+      <c r="H131" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131" s="19"/>
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" s="17">
+        <v>5</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G132" s="19"/>
+      <c r="H132" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132" s="19"/>
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="17">
+        <v>5</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G133" s="19"/>
+      <c r="H133" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133" s="19"/>
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="17">
+        <v>5</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G134" s="19"/>
+      <c r="H134" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134" s="19"/>
+      <c r="J134" s="15"/>
+    </row>
+    <row r="135" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="17">
+        <v>5</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I135" s="19"/>
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="17">
+        <v>5</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G136" s="19"/>
+      <c r="H136" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136" s="19"/>
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" s="17">
+        <v>5</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I137" s="19"/>
+      <c r="J137" s="15"/>
+    </row>
+    <row r="138" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="17">
+        <v>5</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G138" s="19"/>
+      <c r="H138" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138" s="19"/>
+      <c r="J138" s="15"/>
+    </row>
+    <row r="139" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="17">
+        <v>5</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G139" s="19"/>
+      <c r="H139" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139" s="19"/>
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="17">
+        <v>5</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G140" s="19"/>
+      <c r="H140" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I140" s="19"/>
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="17">
+        <v>5</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G141" s="19"/>
+      <c r="H141" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I141" s="19"/>
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="17">
+        <v>5</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G142" s="19"/>
+      <c r="H142" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142" s="19"/>
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="17">
+        <v>5</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G143" s="19"/>
+      <c r="H143" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I143" s="19"/>
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" s="18">
+        <v>4</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="24">
+        <v>2</v>
+      </c>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I144" s="19"/>
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="17">
+        <v>5</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G145" s="19"/>
+      <c r="H145" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145" s="19"/>
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="17">
+        <v>5</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G146" s="19"/>
+      <c r="H146" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I146" s="19"/>
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" s="17">
+        <v>5</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G147" s="19"/>
+      <c r="H147" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I147" s="19"/>
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C148" s="17">
+        <v>5</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G148" s="19"/>
+      <c r="H148" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I148" s="19"/>
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="17">
+        <v>5</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G149" s="19"/>
+      <c r="H149" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I149" s="19"/>
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="17">
+        <v>5</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G150" s="19"/>
+      <c r="H150" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150" s="19"/>
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" s="17">
+        <v>5</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G151" s="19"/>
+      <c r="H151" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I151" s="19"/>
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="7">
         <v>6</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C152" s="7">
         <v>1</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D152" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="7">
+      <c r="E152" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="7">
         <v>6.1</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C153" s="7">
         <v>2</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="17">
+      <c r="E153" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="17">
         <v>6.2</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C154" s="17">
         <v>2</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D154" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="18">
+      <c r="E154" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="18">
         <v>7</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C155" s="18">
         <v>1</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="7">
+      <c r="E155" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="7">
         <v>7.1</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C156" s="7">
         <v>2</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="17">
+      <c r="E156" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="17">
         <v>7.2</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C157" s="7">
         <v>2</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="17">
+      <c r="E157" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="17">
         <v>7.3</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C158" s="7">
         <v>2</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="17">
+      <c r="E158" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="17">
         <v>7.4</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C159" s="17">
         <v>2</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E131" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="18">
+      <c r="E159" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="18">
         <v>8</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C160" s="18">
         <v>1</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D160" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E132" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="7">
+      <c r="E160" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="7">
         <v>8.1</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C161" s="7">
         <v>2</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="7">
+      <c r="E161" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="7">
+      <c r="E162" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C163" s="7">
         <v>2</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="7">
+      <c r="E163" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="7">
         <v>8.4</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C164" s="7">
         <v>2</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="17">
+      <c r="E164" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="17">
         <v>8.5</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C165" s="17">
         <v>2</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D165" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="18">
+      <c r="E165" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="18">
         <v>9</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C166" s="7">
         <v>1</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D166" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="7">
+      <c r="E166" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C167" s="7">
         <v>2</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D167" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D140" s="4" t="s">
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D168" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -983,48 +983,6 @@
     <t>5.2.2.2</t>
   </si>
   <si>
-    <t>Test form Home</t>
-  </si>
-  <si>
-    <t>Test form Login</t>
-  </si>
-  <si>
-    <t>Test form Register</t>
-  </si>
-  <si>
-    <t>Test form GroupClothes</t>
-  </si>
-  <si>
-    <t>Test form ClothDetail</t>
-  </si>
-  <si>
-    <t>Test form SearchByPrice</t>
-  </si>
-  <si>
-    <t>Test form BagDetail</t>
-  </si>
-  <si>
-    <t>Test form OrderInfomation</t>
-  </si>
-  <si>
-    <t>Test form FinishOrder</t>
-  </si>
-  <si>
-    <t>Test form Products_Management</t>
-  </si>
-  <si>
-    <t>Test form GroupProducts_Management</t>
-  </si>
-  <si>
-    <t>Test form OrderManagement</t>
-  </si>
-  <si>
-    <t>Test form Customer_Management</t>
-  </si>
-  <si>
-    <t>Test form Sales_Management</t>
-  </si>
-  <si>
     <t>5.2.2.1.1</t>
   </si>
   <si>
@@ -1110,6 +1068,48 @@
   </si>
   <si>
     <t>Test class Sales</t>
+  </si>
+  <si>
+    <t>Test page Home</t>
+  </si>
+  <si>
+    <t>Test page Login</t>
+  </si>
+  <si>
+    <t>Test page Register</t>
+  </si>
+  <si>
+    <t>Test page GroupClothes</t>
+  </si>
+  <si>
+    <t>Test page ClothDetail</t>
+  </si>
+  <si>
+    <t>Test page SearchByPrice</t>
+  </si>
+  <si>
+    <t>Test page BagDetail</t>
+  </si>
+  <si>
+    <t>Test page OrderInfomation</t>
+  </si>
+  <si>
+    <t>Test page FinishOrder</t>
+  </si>
+  <si>
+    <t>Test page Products_Management</t>
+  </si>
+  <si>
+    <t>Test page GroupProducts_Management</t>
+  </si>
+  <si>
+    <t>Test page OrderManagement</t>
+  </si>
+  <si>
+    <t>Test page Customer_Management</t>
+  </si>
+  <si>
+    <t>Test page Sales_Management</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1258,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,37 +1597,37 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="13" t="s">
         <v>64</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="E117" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F117" s="24">
+      <c r="F117" s="23">
         <v>6</v>
       </c>
       <c r="G117" s="4"/>
@@ -3803,7 +3803,7 @@
       <c r="E118" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="24">
+      <c r="F118" s="23">
         <v>2</v>
       </c>
       <c r="G118" s="4"/>
@@ -3825,7 +3825,7 @@
       <c r="E119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F119" s="25">
+      <c r="F119" s="24">
         <v>0.2</v>
       </c>
       <c r="G119" s="4"/>
@@ -3847,7 +3847,7 @@
       <c r="E120" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="25">
+      <c r="F120" s="24">
         <v>0.2</v>
       </c>
       <c r="G120" s="4"/>
@@ -3869,7 +3869,7 @@
       <c r="E121" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F121" s="25">
+      <c r="F121" s="24">
         <v>0.2</v>
       </c>
       <c r="G121" s="4"/>
@@ -3891,7 +3891,7 @@
       <c r="E122" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F122" s="25">
+      <c r="F122" s="24">
         <v>0.2</v>
       </c>
       <c r="G122" s="4"/>
@@ -3913,7 +3913,7 @@
       <c r="E123" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F123" s="25">
+      <c r="F123" s="24">
         <v>0.2</v>
       </c>
       <c r="G123" s="19"/>
@@ -3935,7 +3935,7 @@
       <c r="E124" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="25">
+      <c r="F124" s="24">
         <v>0.2</v>
       </c>
       <c r="G124" s="16"/>
@@ -3957,7 +3957,7 @@
       <c r="E125" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F125" s="25">
+      <c r="F125" s="24">
         <v>0.2</v>
       </c>
       <c r="G125" s="11"/>
@@ -3980,7 +3980,7 @@
       <c r="E126" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F126" s="25">
+      <c r="F126" s="24">
         <v>0.2</v>
       </c>
       <c r="G126" s="19"/>
@@ -4003,7 +4003,7 @@
       <c r="E127" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F127" s="25">
+      <c r="F127" s="24">
         <v>0.2</v>
       </c>
       <c r="G127" s="19"/>
@@ -4026,8 +4026,8 @@
       <c r="E128" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F128" s="24">
-        <v>4</v>
+      <c r="F128" s="23">
+        <v>5</v>
       </c>
       <c r="G128" s="19"/>
       <c r="H128" s="19" t="s">
@@ -4049,8 +4049,8 @@
       <c r="E129" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F129" s="24">
-        <v>2</v>
+      <c r="F129" s="23">
+        <v>3</v>
       </c>
       <c r="G129" s="19"/>
       <c r="H129" s="19" t="s">
@@ -4061,19 +4061,19 @@
     </row>
     <row r="130" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C130" s="17">
         <v>5</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F130" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F130" s="24">
+        <v>0.2</v>
       </c>
       <c r="G130" s="19"/>
       <c r="H130" s="16" t="s">
@@ -4084,19 +4084,19 @@
     </row>
     <row r="131" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="20" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C131" s="17">
         <v>5</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F131" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F131" s="24">
+        <v>0.2</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="16" t="s">
@@ -4107,19 +4107,19 @@
     </row>
     <row r="132" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C132" s="17">
         <v>5</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F132" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F132" s="24">
+        <v>0.2</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="16" t="s">
@@ -4130,19 +4130,19 @@
     </row>
     <row r="133" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="20" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C133" s="17">
         <v>5</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F133" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F133" s="24">
+        <v>0.2</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="16" t="s">
@@ -4153,19 +4153,19 @@
     </row>
     <row r="134" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C134" s="17">
         <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F134" s="24">
+        <v>0.2</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="16" t="s">
@@ -4176,19 +4176,19 @@
     </row>
     <row r="135" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="20" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C135" s="17">
         <v>5</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F135" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F135" s="24">
+        <v>0.2</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="16" t="s">
@@ -4199,19 +4199,19 @@
     </row>
     <row r="136" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C136" s="17">
         <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F136" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F136" s="24">
+        <v>0.2</v>
       </c>
       <c r="G136" s="19"/>
       <c r="H136" s="16" t="s">
@@ -4222,19 +4222,19 @@
     </row>
     <row r="137" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="20" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C137" s="17">
         <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F137" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F137" s="24">
+        <v>0.2</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="16" t="s">
@@ -4245,19 +4245,19 @@
     </row>
     <row r="138" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C138" s="17">
         <v>5</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F138" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F138" s="24">
+        <v>0.2</v>
       </c>
       <c r="G138" s="19"/>
       <c r="H138" s="16" t="s">
@@ -4268,19 +4268,19 @@
     </row>
     <row r="139" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="20" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C139" s="17">
         <v>5</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F139" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F139" s="24">
+        <v>0.2</v>
       </c>
       <c r="G139" s="19"/>
       <c r="H139" s="16" t="s">
@@ -4291,19 +4291,19 @@
     </row>
     <row r="140" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C140" s="17">
         <v>5</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E140" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F140" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F140" s="24">
+        <v>0.2</v>
       </c>
       <c r="G140" s="19"/>
       <c r="H140" s="16" t="s">
@@ -4314,19 +4314,19 @@
     </row>
     <row r="141" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="20" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C141" s="17">
         <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F141" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F141" s="24">
+        <v>0.2</v>
       </c>
       <c r="G141" s="19"/>
       <c r="H141" s="16" t="s">
@@ -4337,19 +4337,19 @@
     </row>
     <row r="142" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C142" s="17">
         <v>5</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F142" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F142" s="24">
+        <v>0.2</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="16" t="s">
@@ -4360,19 +4360,19 @@
     </row>
     <row r="143" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C143" s="17">
         <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="25">
-        <v>0.14000000000000001</v>
+      <c r="F143" s="24">
+        <v>0.2</v>
       </c>
       <c r="G143" s="19"/>
       <c r="H143" s="16" t="s">
@@ -4389,12 +4389,12 @@
         <v>4</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="24">
+      <c r="F144" s="23">
         <v>2</v>
       </c>
       <c r="G144" s="19"/>
@@ -4406,18 +4406,18 @@
     </row>
     <row r="145" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C145" s="17">
         <v>5</v>
       </c>
-      <c r="D145" s="23" t="s">
-        <v>289</v>
+      <c r="D145" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F145" s="25">
+      <c r="F145" s="24">
         <v>0.25</v>
       </c>
       <c r="G145" s="19"/>
@@ -4429,18 +4429,18 @@
     </row>
     <row r="146" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C146" s="17">
         <v>5</v>
       </c>
-      <c r="D146" s="23" t="s">
-        <v>290</v>
+      <c r="D146" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="E146" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F146" s="25">
+      <c r="F146" s="24">
         <v>0.25</v>
       </c>
       <c r="G146" s="19"/>
@@ -4452,18 +4452,18 @@
     </row>
     <row r="147" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C147" s="17">
         <v>5</v>
       </c>
-      <c r="D147" s="23" t="s">
-        <v>291</v>
+      <c r="D147" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F147" s="25">
+      <c r="F147" s="24">
         <v>0.25</v>
       </c>
       <c r="G147" s="19"/>
@@ -4475,18 +4475,18 @@
     </row>
     <row r="148" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C148" s="17">
         <v>5</v>
       </c>
-      <c r="D148" s="23" t="s">
-        <v>292</v>
+      <c r="D148" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F148" s="25">
+      <c r="F148" s="24">
         <v>0.25</v>
       </c>
       <c r="G148" s="19"/>
@@ -4498,18 +4498,18 @@
     </row>
     <row r="149" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C149" s="17">
         <v>5</v>
       </c>
-      <c r="D149" s="23" t="s">
-        <v>293</v>
+      <c r="D149" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="25">
+      <c r="F149" s="24">
         <v>0.25</v>
       </c>
       <c r="G149" s="19"/>
@@ -4521,18 +4521,18 @@
     </row>
     <row r="150" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C150" s="17">
         <v>5</v>
       </c>
-      <c r="D150" s="23" t="s">
-        <v>294</v>
+      <c r="D150" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F150" s="25">
+      <c r="F150" s="24">
         <v>0.25</v>
       </c>
       <c r="G150" s="19"/>
@@ -4544,18 +4544,18 @@
     </row>
     <row r="151" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="20" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C151" s="17">
         <v>5</v>
       </c>
-      <c r="D151" s="23" t="s">
-        <v>295</v>
+      <c r="D151" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="E151" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F151" s="25">
+      <c r="F151" s="24">
         <v>0.25</v>
       </c>
       <c r="G151" s="19"/>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\SPM\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="299">
   <si>
     <t xml:space="preserve">Work Breakdown Structure </t>
   </si>
@@ -1110,6 +1115,15 @@
   </si>
   <si>
     <t>Test page Sales_Management</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>56 ngày</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1270,6 +1284,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,7 +1356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1365,7 +1391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J168"/>
+  <dimension ref="B3:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1700,9 @@
       <c r="F12" s="11">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>26.8</v>
+      </c>
       <c r="H12" s="11" t="s">
         <v>69</v>
       </c>
@@ -1696,7 +1724,9 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>69</v>
       </c>
@@ -1718,7 +1748,9 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>1.8</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1740,7 +1772,9 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>1.8</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>69</v>
       </c>
@@ -1762,7 +1796,9 @@
       <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>69</v>
       </c>
@@ -1784,7 +1820,9 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>1.8</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>69</v>
       </c>
@@ -1806,7 +1844,9 @@
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>69</v>
       </c>
@@ -1828,7 +1868,9 @@
       <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>69</v>
       </c>
@@ -1850,7 +1892,9 @@
       <c r="F20" s="11">
         <v>7</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>12.5</v>
+      </c>
       <c r="H20" s="11" t="s">
         <v>68</v>
       </c>
@@ -1872,7 +1916,9 @@
       <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1894,7 +1940,9 @@
       <c r="F22" s="4">
         <v>3</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>5.4</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>68</v>
       </c>
@@ -1916,7 +1964,9 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>1.8</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1938,7 +1988,9 @@
       <c r="F24" s="11">
         <v>7</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <v>12.5</v>
+      </c>
       <c r="H24" s="11" t="s">
         <v>69</v>
       </c>
@@ -1960,7 +2012,9 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>1.8</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>69</v>
       </c>
@@ -1982,7 +2036,9 @@
       <c r="F26" s="4">
         <v>6</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>10.7</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>69</v>
       </c>
@@ -2002,9 +2058,11 @@
         <v>32</v>
       </c>
       <c r="F27" s="11">
-        <v>15</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="G27" s="11">
+        <v>19.600000000000001</v>
+      </c>
       <c r="H27" s="11" t="s">
         <v>70</v>
       </c>
@@ -2026,7 +2084,9 @@
       <c r="F28" s="19">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="19">
+        <v>1.8</v>
+      </c>
       <c r="H28" s="19" t="s">
         <v>68</v>
       </c>
@@ -2045,7 +2105,7 @@
       <c r="E29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
         <v>69</v>
@@ -2065,7 +2125,7 @@
       <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
         <v>69</v>
@@ -2085,7 +2145,7 @@
       <c r="E31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16" t="s">
         <v>69</v>
@@ -2105,7 +2165,7 @@
       <c r="E32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
         <v>69</v>
@@ -2125,7 +2185,7 @@
       <c r="E33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16" t="s">
         <v>69</v>
@@ -2145,7 +2205,7 @@
       <c r="E34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16" t="s">
         <v>69</v>
@@ -2165,7 +2225,7 @@
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16" t="s">
         <v>69</v>
@@ -2185,7 +2245,7 @@
       <c r="E36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16" t="s">
         <v>69</v>
@@ -2205,7 +2265,7 @@
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
         <v>69</v>
@@ -2228,7 +2288,9 @@
       <c r="F38" s="19">
         <v>3</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="19">
+        <v>5.4</v>
+      </c>
       <c r="H38" s="19" t="s">
         <v>68</v>
       </c>
@@ -2247,8 +2309,12 @@
       <c r="E39" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="16">
+        <v>3</v>
+      </c>
+      <c r="G39" s="16">
+        <v>5.4</v>
+      </c>
       <c r="H39" s="19" t="s">
         <v>69</v>
       </c>
@@ -2267,8 +2333,12 @@
       <c r="E40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H40" s="19" t="s">
         <v>69</v>
       </c>
@@ -2367,8 +2437,12 @@
       <c r="E45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="F45" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>69</v>
       </c>
@@ -2567,8 +2641,12 @@
       <c r="E55" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="F55" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H55" s="19" t="s">
         <v>69</v>
       </c>
@@ -2707,8 +2785,12 @@
       <c r="E62" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="F62" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H62" s="19" t="s">
         <v>69</v>
       </c>
@@ -2867,8 +2949,12 @@
       <c r="E70" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="F70" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H70" s="19" t="s">
         <v>69</v>
       </c>
@@ -2967,8 +3053,12 @@
       <c r="E75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
+      <c r="F75" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H75" s="19" t="s">
         <v>69</v>
       </c>
@@ -3127,8 +3217,12 @@
       <c r="E83" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="F83" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0.6</v>
+      </c>
       <c r="H83" s="19" t="s">
         <v>69</v>
       </c>
@@ -3187,8 +3281,12 @@
       <c r="E86" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="11">
+        <v>7</v>
+      </c>
+      <c r="G86" s="11">
+        <v>12.6</v>
+      </c>
       <c r="H86" s="19" t="s">
         <v>68</v>
       </c>
@@ -3207,8 +3305,12 @@
       <c r="E87" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="F87" s="19">
+        <v>3</v>
+      </c>
+      <c r="G87" s="19">
+        <v>5.4</v>
+      </c>
       <c r="H87" s="19" t="s">
         <v>68</v>
       </c>
@@ -3407,8 +3509,12 @@
       <c r="E97" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="F97" s="19">
+        <v>2</v>
+      </c>
+      <c r="G97" s="19">
+        <v>3.6</v>
+      </c>
       <c r="H97" s="19" t="s">
         <v>68</v>
       </c>
@@ -3487,8 +3593,12 @@
       <c r="E101" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
+      <c r="F101" s="19">
+        <v>2</v>
+      </c>
+      <c r="G101" s="19">
+        <v>3.6</v>
+      </c>
       <c r="H101" s="19" t="s">
         <v>68</v>
       </c>
@@ -3547,9 +3657,15 @@
       <c r="E104" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="F104" s="11">
+        <v>13</v>
+      </c>
+      <c r="G104" s="11">
+        <v>23.2</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -3565,9 +3681,15 @@
       <c r="E105" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="F105" s="19">
+        <v>8</v>
+      </c>
+      <c r="G105" s="19">
+        <v>14.2</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I105" s="4"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -3585,7 +3707,9 @@
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="I106" s="4"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -3603,7 +3727,9 @@
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="H107" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I107" s="4"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -3621,7 +3747,9 @@
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -3639,7 +3767,9 @@
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="H109" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I109" s="4"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -3657,7 +3787,9 @@
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I110" s="4"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -3675,7 +3807,9 @@
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="H111" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I111" s="4"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3693,7 +3827,9 @@
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="H112" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I112" s="4"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -3711,7 +3847,9 @@
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="H113" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -3729,7 +3867,9 @@
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="H114" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -3747,7 +3887,9 @@
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="H115" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3765,7 +3907,9 @@
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="H116" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -3782,9 +3926,11 @@
         <v>32</v>
       </c>
       <c r="F117" s="23">
-        <v>6</v>
-      </c>
-      <c r="G117" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G117" s="19">
+        <v>9</v>
+      </c>
       <c r="H117" s="19" t="s">
         <v>69</v>
       </c>
@@ -3804,9 +3950,11 @@
         <v>32</v>
       </c>
       <c r="F118" s="23">
-        <v>2</v>
-      </c>
-      <c r="G118" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1.8</v>
+      </c>
       <c r="H118" s="19" t="s">
         <v>69</v>
       </c>
@@ -3825,9 +3973,7 @@
       <c r="E119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F119" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F119" s="24"/>
       <c r="G119" s="4"/>
       <c r="H119" s="16" t="s">
         <v>69</v>
@@ -3847,9 +3993,7 @@
       <c r="E120" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F120" s="24"/>
       <c r="G120" s="4"/>
       <c r="H120" s="16" t="s">
         <v>69</v>
@@ -3869,9 +4013,7 @@
       <c r="E121" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F121" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F121" s="24"/>
       <c r="G121" s="4"/>
       <c r="H121" s="16" t="s">
         <v>69</v>
@@ -3891,9 +4033,7 @@
       <c r="E122" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F122" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F122" s="24"/>
       <c r="G122" s="4"/>
       <c r="H122" s="16" t="s">
         <v>69</v>
@@ -3913,9 +4053,7 @@
       <c r="E123" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F123" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F123" s="24"/>
       <c r="G123" s="19"/>
       <c r="H123" s="16" t="s">
         <v>69</v>
@@ -3935,9 +4073,7 @@
       <c r="E124" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F124" s="24"/>
       <c r="G124" s="16"/>
       <c r="H124" s="16" t="s">
         <v>69</v>
@@ -3957,9 +4093,7 @@
       <c r="E125" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F125" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F125" s="24"/>
       <c r="G125" s="11"/>
       <c r="H125" s="16" t="s">
         <v>69</v>
@@ -3980,9 +4114,7 @@
       <c r="E126" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F126" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F126" s="24"/>
       <c r="G126" s="19"/>
       <c r="H126" s="16" t="s">
         <v>69</v>
@@ -4003,9 +4135,7 @@
       <c r="E127" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F127" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F127" s="24"/>
       <c r="G127" s="19"/>
       <c r="H127" s="16" t="s">
         <v>69</v>
@@ -4027,9 +4157,11 @@
         <v>32</v>
       </c>
       <c r="F128" s="23">
-        <v>5</v>
-      </c>
-      <c r="G128" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1.8</v>
+      </c>
       <c r="H128" s="19" t="s">
         <v>69</v>
       </c>
@@ -4050,9 +4182,11 @@
         <v>32</v>
       </c>
       <c r="F129" s="23">
-        <v>3</v>
-      </c>
-      <c r="G129" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G129" s="19">
+        <v>3.6</v>
+      </c>
       <c r="H129" s="19" t="s">
         <v>69</v>
       </c>
@@ -4072,9 +4206,7 @@
       <c r="E130" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F130" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F130" s="24"/>
       <c r="G130" s="19"/>
       <c r="H130" s="16" t="s">
         <v>69</v>
@@ -4095,9 +4227,7 @@
       <c r="E131" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F131" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F131" s="24"/>
       <c r="G131" s="19"/>
       <c r="H131" s="16" t="s">
         <v>69</v>
@@ -4118,9 +4248,7 @@
       <c r="E132" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F132" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F132" s="24"/>
       <c r="G132" s="19"/>
       <c r="H132" s="16" t="s">
         <v>69</v>
@@ -4141,9 +4269,7 @@
       <c r="E133" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F133" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F133" s="24"/>
       <c r="G133" s="19"/>
       <c r="H133" s="16" t="s">
         <v>69</v>
@@ -4164,9 +4290,7 @@
       <c r="E134" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F134" s="24"/>
       <c r="G134" s="19"/>
       <c r="H134" s="16" t="s">
         <v>69</v>
@@ -4187,9 +4311,7 @@
       <c r="E135" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F135" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F135" s="24"/>
       <c r="G135" s="19"/>
       <c r="H135" s="16" t="s">
         <v>69</v>
@@ -4210,9 +4332,7 @@
       <c r="E136" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F136" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F136" s="24"/>
       <c r="G136" s="19"/>
       <c r="H136" s="16" t="s">
         <v>69</v>
@@ -4233,9 +4353,7 @@
       <c r="E137" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F137" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F137" s="24"/>
       <c r="G137" s="19"/>
       <c r="H137" s="16" t="s">
         <v>69</v>
@@ -4256,9 +4374,7 @@
       <c r="E138" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F138" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F138" s="24"/>
       <c r="G138" s="19"/>
       <c r="H138" s="16" t="s">
         <v>69</v>
@@ -4279,9 +4395,7 @@
       <c r="E139" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F139" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F139" s="24"/>
       <c r="G139" s="19"/>
       <c r="H139" s="16" t="s">
         <v>69</v>
@@ -4302,9 +4416,7 @@
       <c r="E140" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F140" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F140" s="24"/>
       <c r="G140" s="19"/>
       <c r="H140" s="16" t="s">
         <v>69</v>
@@ -4325,9 +4437,7 @@
       <c r="E141" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F141" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F141" s="24"/>
       <c r="G141" s="19"/>
       <c r="H141" s="16" t="s">
         <v>69</v>
@@ -4348,9 +4458,7 @@
       <c r="E142" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F142" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F142" s="24"/>
       <c r="G142" s="19"/>
       <c r="H142" s="16" t="s">
         <v>69</v>
@@ -4371,9 +4479,7 @@
       <c r="E143" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="F143" s="24"/>
       <c r="G143" s="19"/>
       <c r="H143" s="16" t="s">
         <v>69</v>
@@ -4395,9 +4501,11 @@
         <v>32</v>
       </c>
       <c r="F144" s="23">
-        <v>2</v>
-      </c>
-      <c r="G144" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1.8</v>
+      </c>
       <c r="H144" s="19" t="s">
         <v>69</v>
       </c>
@@ -4417,9 +4525,7 @@
       <c r="E145" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F145" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F145" s="24"/>
       <c r="G145" s="19"/>
       <c r="H145" s="16" t="s">
         <v>69</v>
@@ -4440,9 +4546,7 @@
       <c r="E146" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F146" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F146" s="24"/>
       <c r="G146" s="19"/>
       <c r="H146" s="16" t="s">
         <v>69</v>
@@ -4463,9 +4567,7 @@
       <c r="E147" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F147" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F147" s="24"/>
       <c r="G147" s="19"/>
       <c r="H147" s="16" t="s">
         <v>69</v>
@@ -4486,9 +4588,7 @@
       <c r="E148" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F148" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F148" s="24"/>
       <c r="G148" s="19"/>
       <c r="H148" s="16" t="s">
         <v>69</v>
@@ -4509,9 +4609,7 @@
       <c r="E149" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F149" s="24"/>
       <c r="G149" s="19"/>
       <c r="H149" s="16" t="s">
         <v>69</v>
@@ -4532,9 +4630,7 @@
       <c r="E150" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F150" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F150" s="24"/>
       <c r="G150" s="19"/>
       <c r="H150" s="16" t="s">
         <v>69</v>
@@ -4555,9 +4651,7 @@
       <c r="E151" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F151" s="24">
-        <v>0.25</v>
-      </c>
+      <c r="F151" s="24"/>
       <c r="G151" s="19"/>
       <c r="H151" s="16" t="s">
         <v>69</v>
@@ -4578,9 +4672,15 @@
       <c r="E152" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
+      <c r="F152" s="19">
+        <v>3</v>
+      </c>
+      <c r="G152" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I152" s="4"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -4596,9 +4696,13 @@
       <c r="E153" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="4">
+        <v>2</v>
+      </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="H153" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I153" s="4"/>
     </row>
     <row r="154" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4614,9 +4718,13 @@
       <c r="E154" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="11"/>
+      <c r="F154" s="16">
+        <v>1</v>
+      </c>
       <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
+      <c r="H154" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I154" s="11"/>
       <c r="J154" s="3"/>
     </row>
@@ -4633,9 +4741,15 @@
       <c r="E155" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
+      <c r="F155" s="19">
+        <v>2</v>
+      </c>
+      <c r="G155" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I155" s="4"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
@@ -4651,9 +4765,11 @@
       <c r="E156" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F156" s="4"/>
+      <c r="F156" s="24"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="H156" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I156" s="4"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
@@ -4669,9 +4785,11 @@
       <c r="E157" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F157" s="4"/>
+      <c r="F157" s="24"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I157" s="4"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
@@ -4687,9 +4805,11 @@
       <c r="E158" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F158" s="4"/>
+      <c r="F158" s="24"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="H158" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I158" s="4"/>
     </row>
     <row r="159" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4705,9 +4825,11 @@
       <c r="E159" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F159" s="11"/>
+      <c r="F159" s="24"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="H159" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I159" s="11"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -4723,9 +4845,15 @@
       <c r="E160" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
+      <c r="F160" s="19">
+        <v>2</v>
+      </c>
+      <c r="G160" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I160" s="4"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -4741,9 +4869,11 @@
       <c r="E161" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F161" s="4"/>
+      <c r="F161" s="24"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I161" s="4"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
@@ -4759,9 +4889,11 @@
       <c r="E162" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F162" s="4"/>
+      <c r="F162" s="24"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
+      <c r="H162" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I162" s="4"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -4777,9 +4909,11 @@
       <c r="E163" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F163" s="4"/>
+      <c r="F163" s="24"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
+      <c r="H163" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I163" s="4"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
@@ -4795,9 +4929,11 @@
       <c r="E164" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F164" s="4"/>
+      <c r="F164" s="24"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="H164" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I164" s="4"/>
     </row>
     <row r="165" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4813,9 +4949,11 @@
       <c r="E165" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F165" s="11"/>
+      <c r="F165" s="24"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
+      <c r="H165" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
@@ -4831,9 +4969,15 @@
       <c r="E166" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I166" s="4"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
@@ -4846,15 +4990,33 @@
       <c r="D167" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="E167" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="24">
+        <v>1</v>
+      </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
+      <c r="H167" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="I167" s="4"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D168" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="F168" s="26"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D170" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G170" s="29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dat\Desktop\SPM\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
@@ -1281,9 +1276,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1295,6 +1287,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="C114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,37 +1618,37 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="13" t="s">
         <v>64</v>
       </c>
@@ -2333,7 +2328,7 @@
       <c r="E40" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="26" t="s">
         <v>296</v>
       </c>
       <c r="G40" s="16">
@@ -4157,7 +4152,7 @@
         <v>32</v>
       </c>
       <c r="F128" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G128" s="19">
         <v>1.8</v>
@@ -4182,7 +4177,7 @@
         <v>32</v>
       </c>
       <c r="F129" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G129" s="19">
         <v>3.6</v>
@@ -5006,16 +5001,16 @@
       <c r="D168" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F168" s="26"/>
+      <c r="F168" s="25"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D170" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F170" s="28" t="s">
+      <c r="F170" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="G170" s="29">
+      <c r="G170" s="28">
         <v>1</v>
       </c>
     </row>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="417">
   <si>
     <t xml:space="preserve">Work Breakdown Structure </t>
   </si>
@@ -164,39 +169,6 @@
   </si>
   <si>
     <t>Kiểm thử</t>
-  </si>
-  <si>
-    <t>Code Mediation.CollectorTriggers.TimeManualTrigger</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.Core</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultAggregator</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultBuffer</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultDecoder</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultEncoder</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultFomatter</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultNormalizer</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.DefaultRecordEnricher</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.IPAddressFilter</t>
-  </si>
-  <si>
-    <t>Code Mediation.Workflows.NetFlow.NetFlowCdrProcessor</t>
   </si>
   <si>
     <t xml:space="preserve">Trạng thái </t>
@@ -628,30 +600,6 @@
     <t>5.1.3</t>
   </si>
   <si>
-    <t>5.1.4</t>
-  </si>
-  <si>
-    <t>5.1.5</t>
-  </si>
-  <si>
-    <t>5.1.6</t>
-  </si>
-  <si>
-    <t>5.1.7</t>
-  </si>
-  <si>
-    <t>5.1.8</t>
-  </si>
-  <si>
-    <t>5.1.9</t>
-  </si>
-  <si>
-    <t>5.1.10</t>
-  </si>
-  <si>
-    <t>5.1.11</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
@@ -1120,16 +1068,427 @@
   <si>
     <t>56 ngày</t>
   </si>
+  <si>
+    <t>Code create database Cloth</t>
+  </si>
+  <si>
+    <t>Code create table Shop</t>
+  </si>
+  <si>
+    <t>Code create table GroupClothes</t>
+  </si>
+  <si>
+    <t>Code create table Clothes</t>
+  </si>
+  <si>
+    <t>Code create table ClothesImages</t>
+  </si>
+  <si>
+    <t>Code create table Admin</t>
+  </si>
+  <si>
+    <t>Code create table Customer</t>
+  </si>
+  <si>
+    <t>Code create table Order</t>
+  </si>
+  <si>
+    <t>Code create table OrderDetail</t>
+  </si>
+  <si>
+    <t>Code create table Sales</t>
+  </si>
+  <si>
+    <t>Code giao diện</t>
+  </si>
+  <si>
+    <t>Code trang Home</t>
+  </si>
+  <si>
+    <t>Code trang Login</t>
+  </si>
+  <si>
+    <t>Code trang Register</t>
+  </si>
+  <si>
+    <t>Code trang GroupClothes</t>
+  </si>
+  <si>
+    <t>Code trang ClothDetail</t>
+  </si>
+  <si>
+    <t>Code trang SeachByPrice</t>
+  </si>
+  <si>
+    <t>Code trang BagDetail</t>
+  </si>
+  <si>
+    <t>Code trang OrderInfomation</t>
+  </si>
+  <si>
+    <t>Code trang FinishOrder</t>
+  </si>
+  <si>
+    <t>Code trang Products_Management</t>
+  </si>
+  <si>
+    <t>Code trang GroupProducts_Management</t>
+  </si>
+  <si>
+    <t>Code trang OrderManagement</t>
+  </si>
+  <si>
+    <t>Code trang Customer_Management</t>
+  </si>
+  <si>
+    <t>Code trang Sales_Management</t>
+  </si>
+  <si>
+    <t>Code Class</t>
+  </si>
+  <si>
+    <t>5.1.1.2</t>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
+  </si>
+  <si>
+    <t>5.1.1.3</t>
+  </si>
+  <si>
+    <t>5.1.1.4</t>
+  </si>
+  <si>
+    <t>5.1.1.5</t>
+  </si>
+  <si>
+    <t>5.1.1.6</t>
+  </si>
+  <si>
+    <t>5.1.1.7</t>
+  </si>
+  <si>
+    <t>5.1.1.8</t>
+  </si>
+  <si>
+    <t>5.1.1.9</t>
+  </si>
+  <si>
+    <t>5.1.2.1</t>
+  </si>
+  <si>
+    <t>5.1.2.2</t>
+  </si>
+  <si>
+    <t>5.1.2.3</t>
+  </si>
+  <si>
+    <t>5.1.2.4</t>
+  </si>
+  <si>
+    <t>5.1.2.5</t>
+  </si>
+  <si>
+    <t>5.1.2.6</t>
+  </si>
+  <si>
+    <t>5.1.2.7</t>
+  </si>
+  <si>
+    <t>5.1.2.8</t>
+  </si>
+  <si>
+    <t>5.1.2.9</t>
+  </si>
+  <si>
+    <t>5.1.2.10</t>
+  </si>
+  <si>
+    <t>5.1.2.11</t>
+  </si>
+  <si>
+    <t>5.1.2.12</t>
+  </si>
+  <si>
+    <t>5.1.2.13</t>
+  </si>
+  <si>
+    <t>5.1.2.14</t>
+  </si>
+  <si>
+    <t>Code class Bag</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>5.1.3.1.1</t>
+  </si>
+  <si>
+    <t>5.1.3.1.2</t>
+  </si>
+  <si>
+    <t>5.1.3.1.3</t>
+  </si>
+  <si>
+    <t>5.1.3.1.4</t>
+  </si>
+  <si>
+    <t>5.1.3.2</t>
+  </si>
+  <si>
+    <t>Code class Cloth</t>
+  </si>
+  <si>
+    <t>5.1.3.2.1</t>
+  </si>
+  <si>
+    <t>5.1.3.2.2</t>
+  </si>
+  <si>
+    <t>5.1.3.2.3</t>
+  </si>
+  <si>
+    <t>5.1.3.2.4</t>
+  </si>
+  <si>
+    <t>5.1.3.2.5</t>
+  </si>
+  <si>
+    <t>5.1.3.2.6</t>
+  </si>
+  <si>
+    <t>5.1.3.2.7</t>
+  </si>
+  <si>
+    <t>5.1.3.2.8</t>
+  </si>
+  <si>
+    <t>5.1.3.2.9</t>
+  </si>
+  <si>
+    <t>5.1.3.3</t>
+  </si>
+  <si>
+    <t>Code class ConnectDB</t>
+  </si>
+  <si>
+    <t>5.1.3.3.1</t>
+  </si>
+  <si>
+    <t>5.1.3.3.2</t>
+  </si>
+  <si>
+    <t>5.1.3.3.3</t>
+  </si>
+  <si>
+    <t>5.1.3.3.4</t>
+  </si>
+  <si>
+    <t>5.1.3.3.5</t>
+  </si>
+  <si>
+    <t>5.1.3.3.6</t>
+  </si>
+  <si>
+    <t>5.1.3.4</t>
+  </si>
+  <si>
+    <t>Code class Customer</t>
+  </si>
+  <si>
+    <t>5.1.3.4.1</t>
+  </si>
+  <si>
+    <t>5.1.3.4.2</t>
+  </si>
+  <si>
+    <t>5.1.3.4.3</t>
+  </si>
+  <si>
+    <t>5.1.3.4.4</t>
+  </si>
+  <si>
+    <t>5.1.3.4.5</t>
+  </si>
+  <si>
+    <t>5.1.3.4.6</t>
+  </si>
+  <si>
+    <t>5.1.3.4.7</t>
+  </si>
+  <si>
+    <t>5.1.3.5</t>
+  </si>
+  <si>
+    <t>Code class Order</t>
+  </si>
+  <si>
+    <t>5.1.3.5.1</t>
+  </si>
+  <si>
+    <t>5.1.3.5.2</t>
+  </si>
+  <si>
+    <t>5.1.3.5.3</t>
+  </si>
+  <si>
+    <t>5.1.3.5.4</t>
+  </si>
+  <si>
+    <t>5.1.3.6</t>
+  </si>
+  <si>
+    <t>Code class OrderControl</t>
+  </si>
+  <si>
+    <t>5.1.3.6.1</t>
+  </si>
+  <si>
+    <t>5.1.3.6.2</t>
+  </si>
+  <si>
+    <t>5.1.3.6.3</t>
+  </si>
+  <si>
+    <t>5.1.3.6.4</t>
+  </si>
+  <si>
+    <t>5.1.3.6.5</t>
+  </si>
+  <si>
+    <t>5.1.3.6.6</t>
+  </si>
+  <si>
+    <t>5.1.3.6.7</t>
+  </si>
+  <si>
+    <t>5.1.3.7</t>
+  </si>
+  <si>
+    <t>Code class Sales</t>
+  </si>
+  <si>
+    <t>5.1.3.7.1</t>
+  </si>
+  <si>
+    <t>Code Phương thức khỏi tạo Bag</t>
+  </si>
+  <si>
+    <t>Code Phương thức AddCloth</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowDetail</t>
+  </si>
+  <si>
+    <t>Code Phương thức CaculatorTotalPrice</t>
+  </si>
+  <si>
+    <t>Code Phương thức khỏi tạo Cloth</t>
+  </si>
+  <si>
+    <t>Code Phương thức FindClothByID</t>
+  </si>
+  <si>
+    <t>Code Phương thức FindClothByOptions</t>
+  </si>
+  <si>
+    <t>Code Phương thức Searchmin</t>
+  </si>
+  <si>
+    <t>Code Phương thức Searchnormal</t>
+  </si>
+  <si>
+    <t>Code Phương thức Searchmax</t>
+  </si>
+  <si>
+    <t>Code Phương thức showdata</t>
+  </si>
+  <si>
+    <t>Code Phương thức SearchName</t>
+  </si>
+  <si>
+    <t>Code Phương thức MoKetNoi</t>
+  </si>
+  <si>
+    <t>Code Phương thức DongKetNoi</t>
+  </si>
+  <si>
+    <t>Code Phương thức ExecuteCommand</t>
+  </si>
+  <si>
+    <t>Code Phương thức ReturnDataTable</t>
+  </si>
+  <si>
+    <t>Code Phương thức GetData</t>
+  </si>
+  <si>
+    <t>Code Phương thức khởi tạo Customer</t>
+  </si>
+  <si>
+    <t>Code Phương thức CreateCustomer</t>
+  </si>
+  <si>
+    <t>Code Phương thức ReturnDataTable_NonParameter</t>
+  </si>
+  <si>
+    <t>Code Phương thức CheckLogin</t>
+  </si>
+  <si>
+    <t>Code Phương thức CheckUsename</t>
+  </si>
+  <si>
+    <t>Code Phương thức FindCustomer</t>
+  </si>
+  <si>
+    <t>Code Phương thức Register</t>
+  </si>
+  <si>
+    <t>Code Phương thức khởi tạo Order</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowListOrder</t>
+  </si>
+  <si>
+    <t>Code Phương thức  Unpublic</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowDetailOrder</t>
+  </si>
+  <si>
+    <t>Code Phương thức khởi tạo OrderControl</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowNewCloth</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowClothByGroup</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowClothByID</t>
+  </si>
+  <si>
+    <t>Code Phương thức AddClothToBag</t>
+  </si>
+  <si>
+    <t>Code Phương thức CreateOrder</t>
+  </si>
+  <si>
+    <t>Code Phương thức ShowSpeciaCloth</t>
+  </si>
+  <si>
+    <t>Code Phương thức khởi tạo Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1159,6 +1518,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1202,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1288,8 +1662,35 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,7 +1752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,7 +1787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1595,21 +1996,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J170"/>
+  <dimension ref="B3:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="17.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.5703125" style="3"/>
+    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.25" style="3" customWidth="1"/>
+    <col min="5" max="8" width="17.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="58.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -1618,42 +2019,42 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="29"/>
+      <c r="B8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1667,13 +2068,13 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>5</v>
@@ -1699,7 +2100,7 @@
         <v>26.8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1723,7 +2124,7 @@
         <v>5.4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1747,7 +2148,7 @@
         <v>1.8</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -1771,7 +2172,7 @@
         <v>1.8</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1795,7 +2196,7 @@
         <v>5.4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -1819,7 +2220,7 @@
         <v>1.8</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -1843,7 +2244,7 @@
         <v>5.4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -1867,7 +2268,7 @@
         <v>5.4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -1891,7 +2292,7 @@
         <v>12.5</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I20" s="11"/>
     </row>
@@ -1915,7 +2316,7 @@
         <v>5.4</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1939,7 +2340,7 @@
         <v>5.4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -1963,7 +2364,7 @@
         <v>1.8</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1987,7 +2388,7 @@
         <v>12.5</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -2011,7 +2412,7 @@
         <v>1.8</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -2035,7 +2436,7 @@
         <v>10.7</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -2059,7 +2460,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I27" s="11"/>
     </row>
@@ -2071,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>32</v>
@@ -2083,19 +2484,19 @@
         <v>1.8</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C29" s="17">
         <v>3</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>32</v>
@@ -2103,19 +2504,19 @@
       <c r="F29" s="24"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C30" s="17">
         <v>3</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>32</v>
@@ -2123,19 +2524,19 @@
       <c r="F30" s="24"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C31" s="17">
         <v>3</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>32</v>
@@ -2143,19 +2544,19 @@
       <c r="F31" s="24"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C32" s="17">
         <v>3</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>32</v>
@@ -2163,19 +2564,19 @@
       <c r="F32" s="24"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C33" s="17">
         <v>3</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
@@ -2183,19 +2584,19 @@
       <c r="F33" s="24"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C34" s="17">
         <v>3</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -2203,19 +2604,19 @@
       <c r="F34" s="24"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C35" s="17">
         <v>3</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
@@ -2223,19 +2624,19 @@
       <c r="F35" s="24"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C36" s="17">
         <v>3</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>32</v>
@@ -2243,19 +2644,19 @@
       <c r="F36" s="24"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C37" s="17">
         <v>3</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
@@ -2263,7 +2664,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I37" s="16"/>
     </row>
@@ -2287,19 +2688,19 @@
         <v>5.4</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C39" s="18">
         <v>3</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>32</v>
@@ -2311,43 +2712,43 @@
         <v>5.4</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C40" s="17">
         <v>4</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G40" s="16">
         <v>0.6</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C41" s="17">
         <v>5</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>32</v>
@@ -2355,19 +2756,19 @@
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C42" s="17">
         <v>5</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>32</v>
@@ -2375,19 +2776,19 @@
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C43" s="17">
         <v>5</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>32</v>
@@ -2395,19 +2796,19 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C44" s="17">
         <v>5</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>32</v>
@@ -2415,43 +2816,43 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C45" s="17">
         <v>4</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G45" s="16">
         <v>0.6</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" s="17">
         <v>5</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>32</v>
@@ -2459,19 +2860,19 @@
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C47" s="17">
         <v>5</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>32</v>
@@ -2479,19 +2880,19 @@
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C48" s="17">
         <v>5</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>32</v>
@@ -2499,19 +2900,19 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C49" s="17">
         <v>5</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>32</v>
@@ -2519,19 +2920,19 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I49" s="16"/>
     </row>
     <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C50" s="17">
         <v>5</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>32</v>
@@ -2539,19 +2940,19 @@
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I50" s="16"/>
     </row>
     <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C51" s="17">
         <v>5</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>32</v>
@@ -2559,19 +2960,19 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I51" s="16"/>
     </row>
     <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C52" s="17">
         <v>5</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>32</v>
@@ -2579,19 +2980,19 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C53" s="17">
         <v>5</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>32</v>
@@ -2599,19 +3000,19 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I53" s="16"/>
     </row>
     <row r="54" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C54" s="17">
         <v>5</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>32</v>
@@ -2619,43 +3020,43 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I54" s="16"/>
     </row>
     <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C55" s="17">
         <v>4</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G55" s="16">
         <v>0.6</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I55" s="16"/>
     </row>
     <row r="56" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C56" s="17">
         <v>5</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>32</v>
@@ -2663,19 +3064,19 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I56" s="16"/>
     </row>
     <row r="57" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C57" s="17">
         <v>5</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>32</v>
@@ -2683,19 +3084,19 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I57" s="16"/>
     </row>
     <row r="58" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C58" s="17">
         <v>5</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>32</v>
@@ -2703,19 +3104,19 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C59" s="17">
         <v>5</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>32</v>
@@ -2723,19 +3124,19 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I59" s="16"/>
     </row>
     <row r="60" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C60" s="17">
         <v>5</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>32</v>
@@ -2743,19 +3144,19 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C61" s="17">
         <v>5</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>32</v>
@@ -2763,43 +3164,43 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C62" s="17">
         <v>4</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G62" s="16">
         <v>0.6</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I62" s="16"/>
     </row>
     <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="20" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C63" s="17">
         <v>5</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>32</v>
@@ -2807,19 +3208,19 @@
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I63" s="16"/>
     </row>
     <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="17">
+        <v>5</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" s="17">
-        <v>5</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>32</v>
@@ -2827,19 +3228,19 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I64" s="16"/>
     </row>
     <row r="65" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="17">
+        <v>5</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C65" s="17">
-        <v>5</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>32</v>
@@ -2847,19 +3248,19 @@
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I65" s="16"/>
     </row>
     <row r="66" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C66" s="17">
         <v>5</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>32</v>
@@ -2867,19 +3268,19 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I66" s="16"/>
     </row>
     <row r="67" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C67" s="17">
         <v>5</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>32</v>
@@ -2887,19 +3288,19 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C68" s="17">
         <v>5</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>32</v>
@@ -2907,19 +3308,19 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="20" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C69" s="17">
         <v>5</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>32</v>
@@ -2927,43 +3328,43 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C70" s="17">
         <v>4</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G70" s="16">
         <v>0.6</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C71" s="17">
         <v>5</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>32</v>
@@ -2971,19 +3372,19 @@
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C72" s="17">
         <v>5</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>32</v>
@@ -2991,19 +3392,19 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I72" s="16"/>
     </row>
     <row r="73" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C73" s="17">
         <v>5</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>32</v>
@@ -3011,19 +3412,19 @@
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C74" s="17">
         <v>5</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>32</v>
@@ -3031,43 +3432,43 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="20" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C75" s="17">
         <v>4</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G75" s="16">
         <v>0.6</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C76" s="17">
         <v>5</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>32</v>
@@ -3075,19 +3476,19 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="20" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C77" s="17">
         <v>5</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>32</v>
@@ -3095,19 +3496,19 @@
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I77" s="16"/>
     </row>
     <row r="78" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="20" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C78" s="17">
         <v>5</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>32</v>
@@ -3115,19 +3516,19 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I78" s="16"/>
     </row>
     <row r="79" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="20" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C79" s="17">
         <v>5</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>32</v>
@@ -3135,19 +3536,19 @@
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I79" s="16"/>
     </row>
     <row r="80" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="20" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C80" s="17">
         <v>5</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>32</v>
@@ -3155,19 +3556,19 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I80" s="16"/>
     </row>
     <row r="81" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C81" s="17">
         <v>5</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>32</v>
@@ -3175,19 +3576,19 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C82" s="17">
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>32</v>
@@ -3195,43 +3596,43 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I82" s="16"/>
     </row>
     <row r="83" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C83" s="17">
         <v>4</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G83" s="16">
         <v>0.6</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="20" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C84" s="17">
         <v>5</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>32</v>
@@ -3239,19 +3640,19 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I84" s="16"/>
     </row>
     <row r="85" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C85" s="17">
         <v>5</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>32</v>
@@ -3259,7 +3660,7 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I85" s="16"/>
     </row>
@@ -3283,19 +3684,19 @@
         <v>12.6</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C87" s="18">
         <v>3</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>32</v>
@@ -3307,19 +3708,19 @@
         <v>5.4</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="17" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C88" s="17">
         <v>4</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>32</v>
@@ -3327,19 +3728,19 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="17" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C89" s="17">
         <v>4</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>32</v>
@@ -3347,19 +3748,19 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="17" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C90" s="17">
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>32</v>
@@ -3367,19 +3768,19 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="17" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C91" s="17">
         <v>4</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>32</v>
@@ -3387,19 +3788,19 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="17" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C92" s="17">
         <v>4</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>32</v>
@@ -3407,19 +3808,19 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I92" s="19"/>
     </row>
     <row r="93" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C93" s="17">
         <v>4</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>32</v>
@@ -3427,19 +3828,19 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="17" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C94" s="17">
         <v>4</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>32</v>
@@ -3447,19 +3848,19 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="17" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C95" s="17">
         <v>4</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>32</v>
@@ -3467,19 +3868,19 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="17" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C96" s="17">
         <v>4</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>32</v>
@@ -3487,19 +3888,19 @@
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C97" s="18">
         <v>3</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>32</v>
@@ -3511,19 +3912,19 @@
         <v>3.6</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="17" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C98" s="17">
         <v>4</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>32</v>
@@ -3531,19 +3932,19 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="17" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C99" s="17">
         <v>4</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>32</v>
@@ -3551,19 +3952,19 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C100" s="17">
         <v>4</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>32</v>
@@ -3571,19 +3972,19 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="2:9" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C101" s="18">
         <v>3</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>32</v>
@@ -3595,19 +3996,19 @@
         <v>3.6</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="17" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C102" s="17">
         <v>4</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>32</v>
@@ -3615,19 +4016,19 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="17" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C103" s="17">
         <v>4</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>32</v>
@@ -3635,7 +4036,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I103" s="19"/>
     </row>
@@ -3659,13 +4060,13 @@
         <v>23.2</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C105" s="18">
         <v>2</v>
@@ -3683,39 +4084,43 @@
         <v>14.2</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I105" s="4"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="29">
         <v>3</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4" t="s">
-        <v>68</v>
+      <c r="D106" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="32">
+        <v>2</v>
+      </c>
+      <c r="G106" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="I106" s="4"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="C107" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>32</v>
@@ -3723,19 +4128,19 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I107" s="4"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="C108" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>32</v>
@@ -3743,19 +4148,19 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="C109" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>32</v>
@@ -3763,19 +4168,19 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I109" s="4"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="C110" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>32</v>
@@ -3783,19 +4188,19 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I110" s="4"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="C111" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>32</v>
@@ -3803,19 +4208,19 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I111" s="4"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="C112" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>32</v>
@@ -3823,19 +4228,19 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="C113" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>57</v>
+        <v>289</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>32</v>
@@ -3843,19 +4248,19 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="C114" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>32</v>
@@ -3863,19 +4268,19 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="C115" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>32</v>
@@ -3883,1134 +4288,2380 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="17">
+    <row r="116" spans="2:9" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B116" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="29">
         <v>3</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I116" s="11"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C117" s="18">
+      <c r="D116" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="32">
         <v>2</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="23">
-        <v>5</v>
-      </c>
-      <c r="G117" s="19">
-        <v>9</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" s="18">
-        <v>3</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118" s="23">
-        <v>1</v>
-      </c>
-      <c r="G118" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G116" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116" s="32"/>
+    </row>
+    <row r="117" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="17">
+        <v>4</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C118" s="17">
+        <v>4</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="C119" s="17">
         <v>4</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F119" s="24"/>
-      <c r="G119" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
       <c r="H119" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="C120" s="17">
         <v>4</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="24"/>
-      <c r="G120" s="4"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
       <c r="H120" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C121" s="17">
         <v>4</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F121" s="24"/>
-      <c r="G121" s="4"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
       <c r="H121" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="C122" s="17">
         <v>4</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F122" s="24"/>
-      <c r="G122" s="4"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="C123" s="17">
         <v>4</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F123" s="24"/>
-      <c r="G123" s="19"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I123" s="19"/>
-    </row>
-    <row r="124" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="C124" s="17">
         <v>4</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="24"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="16"/>
       <c r="H124" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I124" s="16"/>
     </row>
-    <row r="125" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C125" s="17">
         <v>4</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F125" s="24"/>
-      <c r="G125" s="11"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
       <c r="H125" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I125" s="11"/>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="C126" s="17">
         <v>4</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F126" s="24"/>
-      <c r="G126" s="19"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
       <c r="H126" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I126" s="19"/>
-      <c r="J126" s="15"/>
-    </row>
-    <row r="127" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="C127" s="17">
         <v>4</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" s="17">
+        <v>4</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="17">
+        <v>4</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C130" s="35">
+        <v>4</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="32"/>
+    </row>
+    <row r="131" spans="2:9" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B131" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="29">
+        <v>3</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" s="32">
+        <v>4</v>
+      </c>
+      <c r="G131" s="32">
+        <v>7.1</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="32"/>
+    </row>
+    <row r="132" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="29">
+        <v>4</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G132" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H132" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132" s="32"/>
+    </row>
+    <row r="133" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="35">
+        <v>5</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I133" s="32"/>
+    </row>
+    <row r="134" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" s="35">
+        <v>5</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="32"/>
+    </row>
+    <row r="135" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="35">
+        <v>5</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="32"/>
+    </row>
+    <row r="136" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" s="35">
+        <v>5</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="32"/>
+    </row>
+    <row r="137" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C137" s="29">
+        <v>4</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G137" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H137" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="32"/>
+    </row>
+    <row r="138" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" s="35">
+        <v>5</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" s="32"/>
+    </row>
+    <row r="139" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C139" s="35">
+        <v>5</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="32"/>
+    </row>
+    <row r="140" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C140" s="35">
+        <v>5</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="32"/>
+    </row>
+    <row r="141" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C141" s="35">
+        <v>5</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="32"/>
+    </row>
+    <row r="142" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C142" s="35">
+        <v>5</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="32"/>
+    </row>
+    <row r="143" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" s="35">
+        <v>5</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" s="32"/>
+    </row>
+    <row r="144" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C144" s="35">
+        <v>5</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" s="32"/>
+    </row>
+    <row r="145" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C145" s="35">
+        <v>5</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" s="32"/>
+    </row>
+    <row r="146" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C146" s="35">
+        <v>5</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="38"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" s="32"/>
+    </row>
+    <row r="147" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" s="29">
+        <v>4</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="G147" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="H147" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="32"/>
+    </row>
+    <row r="148" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" s="35">
+        <v>5</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I148" s="32"/>
+    </row>
+    <row r="149" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="35">
+        <v>5</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="38"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I149" s="32"/>
+    </row>
+    <row r="150" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C150" s="35">
+        <v>5</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="38"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I150" s="32"/>
+    </row>
+    <row r="151" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="35">
+        <v>5</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I151" s="32"/>
+    </row>
+    <row r="152" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C152" s="35">
+        <v>5</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I152" s="32"/>
+    </row>
+    <row r="153" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="35">
+        <v>5</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153" s="32"/>
+    </row>
+    <row r="154" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="29">
+        <v>4</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G154" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H154" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I154" s="32"/>
+    </row>
+    <row r="155" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C155" s="35">
+        <v>5</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" s="38"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I155" s="32"/>
+    </row>
+    <row r="156" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C156" s="35">
+        <v>5</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I156" s="32"/>
+    </row>
+    <row r="157" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="35">
+        <v>5</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" s="38"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I157" s="32"/>
+    </row>
+    <row r="158" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" s="35">
+        <v>5</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I158" s="32"/>
+    </row>
+    <row r="159" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C159" s="35">
+        <v>5</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="38"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I159" s="32"/>
+    </row>
+    <row r="160" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" s="35">
+        <v>5</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="38"/>
+      <c r="G160" s="38"/>
+      <c r="H160" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I160" s="32"/>
+    </row>
+    <row r="161" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C161" s="35">
+        <v>5</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="38"/>
+      <c r="G161" s="38"/>
+      <c r="H161" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I161" s="32"/>
+    </row>
+    <row r="162" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="29">
+        <v>4</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G162" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H162" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I162" s="32"/>
+    </row>
+    <row r="163" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C163" s="35">
+        <v>5</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" s="38"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I163" s="32"/>
+    </row>
+    <row r="164" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164" s="35">
+        <v>5</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" s="38"/>
+      <c r="G164" s="38"/>
+      <c r="H164" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I164" s="32"/>
+    </row>
+    <row r="165" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C165" s="35">
+        <v>5</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I165" s="32"/>
+    </row>
+    <row r="166" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C166" s="35">
+        <v>5</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I166" s="32"/>
+    </row>
+    <row r="167" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" s="29">
+        <v>4</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="G167" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I167" s="32"/>
+    </row>
+    <row r="168" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" s="35">
+        <v>5</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" s="38"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I168" s="32"/>
+    </row>
+    <row r="169" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C169" s="35">
+        <v>5</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I169" s="32"/>
+    </row>
+    <row r="170" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C170" s="35">
+        <v>5</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I170" s="32"/>
+    </row>
+    <row r="171" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C171" s="35">
+        <v>5</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I171" s="32"/>
+    </row>
+    <row r="172" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C172" s="35">
+        <v>5</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="38"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I172" s="32"/>
+    </row>
+    <row r="173" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C173" s="35">
+        <v>5</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I173" s="32"/>
+    </row>
+    <row r="174" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C174" s="35">
+        <v>5</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I174" s="32"/>
+    </row>
+    <row r="175" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="29">
+        <v>4</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="G175" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="H175" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I175" s="32"/>
+    </row>
+    <row r="176" spans="2:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="35">
+        <v>5</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I176" s="32"/>
+    </row>
+    <row r="177" spans="2:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="31"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C178" s="18">
+        <v>2</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F178" s="23">
+        <v>5</v>
+      </c>
+      <c r="G178" s="19">
+        <v>9</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" s="18">
+        <v>3</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="23">
+        <v>1</v>
+      </c>
+      <c r="G179" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" s="17">
+        <v>4</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="24"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181" s="17">
+        <v>4</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="24"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="17">
+        <v>4</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" s="24"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C183" s="17">
+        <v>4</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F183" s="24"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C184" s="17">
+        <v>4</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F184" s="24"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I184" s="19"/>
+    </row>
+    <row r="185" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C185" s="17">
+        <v>4</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="24"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I185" s="16"/>
+    </row>
+    <row r="186" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C186" s="17">
+        <v>4</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="24"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I186" s="11"/>
+      <c r="J186" s="3"/>
+    </row>
+    <row r="187" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C187" s="17">
+        <v>4</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="24"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I187" s="19"/>
+      <c r="J187" s="15"/>
+    </row>
+    <row r="188" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C188" s="17">
+        <v>4</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F188" s="24"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I188" s="19"/>
+      <c r="J188" s="15"/>
+    </row>
+    <row r="189" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="18">
+        <v>3</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="23">
+        <v>4</v>
+      </c>
+      <c r="G189" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I189" s="19"/>
+      <c r="J189" s="15"/>
+    </row>
+    <row r="190" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C190" s="18">
+        <v>4</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="23">
+        <v>3</v>
+      </c>
+      <c r="G190" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="H190" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I190" s="19"/>
+      <c r="J190" s="15"/>
+    </row>
+    <row r="191" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="17">
+        <v>5</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F191" s="24"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I191" s="19"/>
+      <c r="J191" s="15"/>
+    </row>
+    <row r="192" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="17">
+        <v>5</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="24"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I192" s="19"/>
+      <c r="J192" s="15"/>
+    </row>
+    <row r="193" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="17">
+        <v>5</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="24"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I193" s="19"/>
+      <c r="J193" s="15"/>
+    </row>
+    <row r="194" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="17">
+        <v>5</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="24"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I194" s="19"/>
+      <c r="J194" s="15"/>
+    </row>
+    <row r="195" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195" s="17">
+        <v>5</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F195" s="24"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I195" s="19"/>
+      <c r="J195" s="15"/>
+    </row>
+    <row r="196" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E127" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F127" s="24"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I127" s="19"/>
-      <c r="J127" s="15"/>
-    </row>
-    <row r="128" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" s="18">
+      <c r="C196" s="17">
+        <v>5</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F196" s="24"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I196" s="19"/>
+      <c r="J196" s="15"/>
+    </row>
+    <row r="197" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="17">
+        <v>5</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="24"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I197" s="19"/>
+      <c r="J197" s="15"/>
+    </row>
+    <row r="198" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="17">
+        <v>5</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="24"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I198" s="19"/>
+      <c r="J198" s="15"/>
+    </row>
+    <row r="199" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="17">
+        <v>5</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" s="24"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I199" s="19"/>
+      <c r="J199" s="15"/>
+    </row>
+    <row r="200" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="17">
+        <v>5</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" s="24"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I200" s="19"/>
+      <c r="J200" s="15"/>
+    </row>
+    <row r="201" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201" s="17">
+        <v>5</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="24"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I201" s="19"/>
+      <c r="J201" s="15"/>
+    </row>
+    <row r="202" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="17">
+        <v>5</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="24"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I202" s="19"/>
+      <c r="J202" s="15"/>
+    </row>
+    <row r="203" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203" s="17">
+        <v>5</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F203" s="24"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I203" s="19"/>
+      <c r="J203" s="15"/>
+    </row>
+    <row r="204" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204" s="17">
+        <v>5</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F204" s="24"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I204" s="19"/>
+      <c r="J204" s="15"/>
+    </row>
+    <row r="205" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C205" s="18">
+        <v>4</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F205" s="23">
+        <v>1</v>
+      </c>
+      <c r="G205" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="H205" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I205" s="19"/>
+      <c r="J205" s="15"/>
+    </row>
+    <row r="206" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="17">
+        <v>5</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F206" s="24"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I206" s="19"/>
+      <c r="J206" s="15"/>
+    </row>
+    <row r="207" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" s="17">
+        <v>5</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F207" s="24"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I207" s="19"/>
+      <c r="J207" s="15"/>
+    </row>
+    <row r="208" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208" s="17">
+        <v>5</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" s="24"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I208" s="19"/>
+      <c r="J208" s="15"/>
+    </row>
+    <row r="209" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="17">
+        <v>5</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F209" s="24"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I209" s="19"/>
+      <c r="J209" s="15"/>
+    </row>
+    <row r="210" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="17">
+        <v>5</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F210" s="24"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I210" s="19"/>
+      <c r="J210" s="15"/>
+    </row>
+    <row r="211" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="17">
+        <v>5</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F211" s="24"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I211" s="19"/>
+      <c r="J211" s="15"/>
+    </row>
+    <row r="212" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="17">
+        <v>5</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F212" s="24"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I212" s="19"/>
+      <c r="J212" s="15"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="7">
+        <v>6</v>
+      </c>
+      <c r="C213" s="7">
+        <v>1</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F213" s="19">
         <v>3</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="23">
-        <v>4</v>
-      </c>
-      <c r="G128" s="19">
+      <c r="G213" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H213" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="C214" s="7">
+        <v>2</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F214" s="4">
+        <v>2</v>
+      </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="C215" s="17">
+        <v>2</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F215" s="16">
+        <v>1</v>
+      </c>
+      <c r="G215" s="11"/>
+      <c r="H215" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I215" s="11"/>
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="18">
+        <v>7</v>
+      </c>
+      <c r="C216" s="18">
+        <v>1</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F216" s="19">
+        <v>2</v>
+      </c>
+      <c r="G216" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="H216" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="C217" s="7">
+        <v>2</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" s="24"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="17">
+        <v>7.2</v>
+      </c>
+      <c r="C218" s="7">
+        <v>2</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F218" s="24"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="17">
+        <v>7.3</v>
+      </c>
+      <c r="C219" s="7">
+        <v>2</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F219" s="24"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="C220" s="17">
+        <v>2</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" s="24"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I220" s="11"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="18">
+        <v>8</v>
+      </c>
+      <c r="C221" s="18">
+        <v>1</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F221" s="19">
+        <v>2</v>
+      </c>
+      <c r="G221" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="H221" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I221" s="4"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="C222" s="7">
+        <v>2</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="24"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I222" s="4"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C223" s="7">
+        <v>2</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223" s="24"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I223" s="4"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C224" s="7">
+        <v>2</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F224" s="24"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="C225" s="7">
+        <v>2</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F225" s="24"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I225" s="4"/>
+    </row>
+    <row r="226" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="C226" s="17">
+        <v>2</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F226" s="24"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I226" s="11"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="18">
+        <v>9</v>
+      </c>
+      <c r="C227" s="7">
+        <v>1</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F227" s="19">
+        <v>1</v>
+      </c>
+      <c r="G227" s="19">
         <v>1.8</v>
       </c>
-      <c r="H128" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I128" s="19"/>
-      <c r="J128" s="15"/>
-    </row>
-    <row r="129" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C129" s="18">
-        <v>4</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="23">
-        <v>3</v>
-      </c>
-      <c r="G129" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I129" s="19"/>
-      <c r="J129" s="15"/>
-    </row>
-    <row r="130" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" s="17">
-        <v>5</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="15"/>
-    </row>
-    <row r="131" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C131" s="17">
-        <v>5</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="15"/>
-    </row>
-    <row r="132" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C132" s="17">
-        <v>5</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="15"/>
-    </row>
-    <row r="133" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C133" s="17">
-        <v>5</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="24"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="15"/>
-    </row>
-    <row r="134" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="17">
-        <v>5</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="15"/>
-    </row>
-    <row r="135" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C135" s="17">
-        <v>5</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F135" s="24"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I135" s="19"/>
-      <c r="J135" s="15"/>
-    </row>
-    <row r="136" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C136" s="17">
-        <v>5</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F136" s="24"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="15"/>
-    </row>
-    <row r="137" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="17">
-        <v>5</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137" s="24"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I137" s="19"/>
-      <c r="J137" s="15"/>
-    </row>
-    <row r="138" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C138" s="17">
-        <v>5</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="24"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="15"/>
-    </row>
-    <row r="139" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C139" s="17">
-        <v>5</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F139" s="24"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="15"/>
-    </row>
-    <row r="140" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C140" s="17">
-        <v>5</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I140" s="19"/>
-      <c r="J140" s="15"/>
-    </row>
-    <row r="141" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C141" s="17">
-        <v>5</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F141" s="24"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I141" s="19"/>
-      <c r="J141" s="15"/>
-    </row>
-    <row r="142" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C142" s="17">
-        <v>5</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F142" s="24"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I142" s="19"/>
-      <c r="J142" s="15"/>
-    </row>
-    <row r="143" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C143" s="17">
-        <v>5</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F143" s="24"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I143" s="19"/>
-      <c r="J143" s="15"/>
-    </row>
-    <row r="144" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C144" s="18">
-        <v>4</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F144" s="23">
+      <c r="H227" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I227" s="4"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C228" s="7">
+        <v>2</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F228" s="24">
         <v>1</v>
       </c>
-      <c r="G144" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I144" s="19"/>
-      <c r="J144" s="15"/>
-    </row>
-    <row r="145" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C145" s="17">
-        <v>5</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="24"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I145" s="19"/>
-      <c r="J145" s="15"/>
-    </row>
-    <row r="146" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C146" s="17">
-        <v>5</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="15"/>
-    </row>
-    <row r="147" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C147" s="17">
-        <v>5</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I147" s="19"/>
-      <c r="J147" s="15"/>
-    </row>
-    <row r="148" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C148" s="17">
-        <v>5</v>
-      </c>
-      <c r="D148" s="22" t="s">
+      <c r="G228" s="4"/>
+      <c r="H228" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I228" s="4"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D229" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F229" s="25"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D231" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I148" s="19"/>
-      <c r="J148" s="15"/>
-    </row>
-    <row r="149" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C149" s="17">
-        <v>5</v>
-      </c>
-      <c r="D149" s="22" t="s">
+      <c r="F231" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E149" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F149" s="24"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I149" s="19"/>
-      <c r="J149" s="15"/>
-    </row>
-    <row r="150" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C150" s="17">
-        <v>5</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F150" s="24"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="15"/>
-    </row>
-    <row r="151" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C151" s="17">
-        <v>5</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F151" s="24"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I151" s="19"/>
-      <c r="J151" s="15"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="7">
-        <v>6</v>
-      </c>
-      <c r="C152" s="7">
-        <v>1</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F152" s="19">
-        <v>3</v>
-      </c>
-      <c r="G152" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="C153" s="7">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F153" s="4">
-        <v>2</v>
-      </c>
-      <c r="G153" s="4"/>
-      <c r="H153" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="C154" s="17">
-        <v>2</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F154" s="16">
-        <v>1</v>
-      </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I154" s="11"/>
-      <c r="J154" s="3"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="18">
-        <v>7</v>
-      </c>
-      <c r="C155" s="18">
-        <v>1</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F155" s="19">
-        <v>2</v>
-      </c>
-      <c r="G155" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="H155" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="C156" s="7">
-        <v>2</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F156" s="24"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="17">
-        <v>7.2</v>
-      </c>
-      <c r="C157" s="7">
-        <v>2</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F157" s="24"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="17">
-        <v>7.3</v>
-      </c>
-      <c r="C158" s="7">
-        <v>2</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F158" s="24"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="17">
-        <v>7.4</v>
-      </c>
-      <c r="C159" s="17">
-        <v>2</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F159" s="24"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I159" s="11"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="18">
-        <v>8</v>
-      </c>
-      <c r="C160" s="18">
-        <v>1</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F160" s="19">
-        <v>2</v>
-      </c>
-      <c r="G160" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="H160" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="C161" s="7">
-        <v>2</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F161" s="24"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C162" s="7">
-        <v>2</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F162" s="24"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C163" s="7">
-        <v>2</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F163" s="24"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="C164" s="7">
-        <v>2</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F164" s="24"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="C165" s="17">
-        <v>2</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" s="24"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I165" s="11"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="18">
-        <v>9</v>
-      </c>
-      <c r="C166" s="7">
-        <v>1</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F166" s="19">
-        <v>1</v>
-      </c>
-      <c r="G166" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="H166" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C167" s="7">
-        <v>2</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F167" s="24">
-        <v>1</v>
-      </c>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D168" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" s="25"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D170" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F170" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G170" s="28">
+      <c r="G231" s="28">
         <v>1</v>
       </c>
     </row>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -1686,11 +1686,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,37 +2019,37 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="13" t="s">
         <v>53</v>
       </c>
@@ -4102,10 +4102,10 @@
         <v>32</v>
       </c>
       <c r="F106" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="32">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H106" s="32" t="s">
         <v>57</v>
@@ -4306,10 +4306,10 @@
         <v>32</v>
       </c>
       <c r="F116" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" s="32">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>57</v>
@@ -4633,10 +4633,10 @@
       <c r="E132" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F132" s="38">
+      <c r="F132" s="37">
         <v>0.6</v>
       </c>
-      <c r="G132" s="38">
+      <c r="G132" s="37">
         <v>1.1000000000000001</v>
       </c>
       <c r="H132" s="32" t="s">
@@ -4657,8 +4657,8 @@
       <c r="E133" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
       <c r="H133" s="16" t="s">
         <v>57</v>
       </c>
@@ -4677,8 +4677,8 @@
       <c r="E134" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
       <c r="H134" s="16" t="s">
         <v>57</v>
       </c>
@@ -4697,8 +4697,8 @@
       <c r="E135" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
       <c r="H135" s="16" t="s">
         <v>57</v>
       </c>
@@ -4717,8 +4717,8 @@
       <c r="E136" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
       <c r="H136" s="16" t="s">
         <v>57</v>
       </c>
@@ -4737,10 +4737,10 @@
       <c r="E137" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F137" s="38">
+      <c r="F137" s="37">
         <v>0.6</v>
       </c>
-      <c r="G137" s="38">
+      <c r="G137" s="37">
         <v>1.1000000000000001</v>
       </c>
       <c r="H137" s="32" t="s">
@@ -4761,8 +4761,8 @@
       <c r="E138" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
       <c r="H138" s="16" t="s">
         <v>57</v>
       </c>
@@ -4781,8 +4781,8 @@
       <c r="E139" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
       <c r="H139" s="16" t="s">
         <v>57</v>
       </c>
@@ -4801,8 +4801,8 @@
       <c r="E140" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
       <c r="H140" s="16" t="s">
         <v>57</v>
       </c>
@@ -4821,8 +4821,8 @@
       <c r="E141" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
       <c r="H141" s="16" t="s">
         <v>57</v>
       </c>
@@ -4841,8 +4841,8 @@
       <c r="E142" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F142" s="38"/>
-      <c r="G142" s="38"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
       <c r="H142" s="16" t="s">
         <v>57</v>
       </c>
@@ -4861,8 +4861,8 @@
       <c r="E143" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
       <c r="H143" s="16" t="s">
         <v>57</v>
       </c>
@@ -4881,8 +4881,8 @@
       <c r="E144" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
       <c r="H144" s="16" t="s">
         <v>57</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="E145" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
       <c r="H145" s="16" t="s">
         <v>57</v>
       </c>
@@ -4921,8 +4921,8 @@
       <c r="E146" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
       <c r="H146" s="16" t="s">
         <v>57</v>
       </c>
@@ -4941,10 +4941,10 @@
       <c r="E147" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F147" s="38">
+      <c r="F147" s="37">
         <v>0.4</v>
       </c>
-      <c r="G147" s="38">
+      <c r="G147" s="37">
         <v>0.7</v>
       </c>
       <c r="H147" s="32" t="s">
@@ -4965,8 +4965,8 @@
       <c r="E148" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
       <c r="H148" s="16" t="s">
         <v>57</v>
       </c>
@@ -4985,8 +4985,8 @@
       <c r="E149" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="38"/>
-      <c r="G149" s="38"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
       <c r="H149" s="16" t="s">
         <v>57</v>
       </c>
@@ -5005,8 +5005,8 @@
       <c r="E150" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
       <c r="H150" s="16" t="s">
         <v>57</v>
       </c>
@@ -5025,8 +5025,8 @@
       <c r="E151" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
       <c r="H151" s="16" t="s">
         <v>57</v>
       </c>
@@ -5045,8 +5045,8 @@
       <c r="E152" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
       <c r="H152" s="16" t="s">
         <v>57</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="E153" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
       <c r="H153" s="16" t="s">
         <v>57</v>
       </c>
@@ -5085,10 +5085,10 @@
       <c r="E154" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="38">
+      <c r="F154" s="37">
         <v>0.6</v>
       </c>
-      <c r="G154" s="38">
+      <c r="G154" s="37">
         <v>1.1000000000000001</v>
       </c>
       <c r="H154" s="32" t="s">
@@ -5109,8 +5109,8 @@
       <c r="E155" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
       <c r="H155" s="16" t="s">
         <v>57</v>
       </c>
@@ -5129,8 +5129,8 @@
       <c r="E156" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
       <c r="H156" s="16" t="s">
         <v>57</v>
       </c>
@@ -5149,8 +5149,8 @@
       <c r="E157" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
       <c r="H157" s="16" t="s">
         <v>57</v>
       </c>
@@ -5169,8 +5169,8 @@
       <c r="E158" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
       <c r="H158" s="16" t="s">
         <v>57</v>
       </c>
@@ -5189,8 +5189,8 @@
       <c r="E159" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F159" s="38"/>
-      <c r="G159" s="38"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
       <c r="H159" s="16" t="s">
         <v>57</v>
       </c>
@@ -5209,8 +5209,8 @@
       <c r="E160" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
       <c r="H160" s="16" t="s">
         <v>57</v>
       </c>
@@ -5229,8 +5229,8 @@
       <c r="E161" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F161" s="38"/>
-      <c r="G161" s="38"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
       <c r="H161" s="16" t="s">
         <v>57</v>
       </c>
@@ -5249,10 +5249,10 @@
       <c r="E162" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F162" s="38">
+      <c r="F162" s="37">
         <v>0.6</v>
       </c>
-      <c r="G162" s="38">
+      <c r="G162" s="37">
         <v>1.1000000000000001</v>
       </c>
       <c r="H162" s="32" t="s">
@@ -5273,8 +5273,8 @@
       <c r="E163" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F163" s="38"/>
-      <c r="G163" s="38"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37"/>
       <c r="H163" s="16" t="s">
         <v>57</v>
       </c>
@@ -5293,8 +5293,8 @@
       <c r="E164" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
       <c r="H164" s="16" t="s">
         <v>57</v>
       </c>
@@ -5313,8 +5313,8 @@
       <c r="E165" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
       <c r="H165" s="16" t="s">
         <v>57</v>
       </c>
@@ -5333,8 +5333,8 @@
       <c r="E166" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
       <c r="H166" s="16" t="s">
         <v>57</v>
       </c>
@@ -5353,10 +5353,10 @@
       <c r="E167" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F167" s="38">
+      <c r="F167" s="37">
         <v>0.8</v>
       </c>
-      <c r="G167" s="38">
+      <c r="G167" s="37">
         <v>1.4</v>
       </c>
       <c r="H167" s="32" t="s">
@@ -5377,8 +5377,8 @@
       <c r="E168" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F168" s="38"/>
-      <c r="G168" s="38"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37"/>
       <c r="H168" s="16" t="s">
         <v>57</v>
       </c>
@@ -5397,8 +5397,8 @@
       <c r="E169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
       <c r="H169" s="16" t="s">
         <v>57</v>
       </c>
@@ -5417,8 +5417,8 @@
       <c r="E170" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
       <c r="H170" s="16" t="s">
         <v>57</v>
       </c>
@@ -5437,8 +5437,8 @@
       <c r="E171" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
       <c r="H171" s="16" t="s">
         <v>57</v>
       </c>
@@ -5457,8 +5457,8 @@
       <c r="E172" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
       <c r="H172" s="16" t="s">
         <v>57</v>
       </c>
@@ -5477,8 +5477,8 @@
       <c r="E173" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
       <c r="H173" s="16" t="s">
         <v>57</v>
       </c>
@@ -5497,8 +5497,8 @@
       <c r="E174" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
       <c r="H174" s="16" t="s">
         <v>57</v>
       </c>
@@ -5517,10 +5517,10 @@
       <c r="E175" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F175" s="38">
+      <c r="F175" s="37">
         <v>0.4</v>
       </c>
-      <c r="G175" s="38">
+      <c r="G175" s="37">
         <v>0.7</v>
       </c>
       <c r="H175" s="32" t="s">
@@ -5541,8 +5541,8 @@
       <c r="E176" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
       <c r="H176" s="16" t="s">
         <v>57</v>
       </c>

--- a/Document/estimates_wbs-v1-0-0.xlsx
+++ b/Document/estimates_wbs-v1-0-0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\SPM\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1998,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
